--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101051.1853451891</v>
+        <v>214740.7617589392</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2731752.266931182</v>
+        <v>2731752.266931186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8921282.791514039</v>
+        <v>8921282.791514037</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>117.6117944572846</v>
+        <v>67.0765978503803</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448614</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481189</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250824</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688228936</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255721</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853709</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491442</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>319.3678335162778</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>101.6082732595119</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>55.90301252244922</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>142.929990410344</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>255.7292869272886</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1336,16 +1336,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>160.1743669966221</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I11" t="n">
-        <v>99.71884268366314</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.11582180088</v>
+        <v>118.5796179100774</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>343.1629076073053</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H12" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I12" t="n">
-        <v>36.47348076827031</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.720873529840887</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S12" t="n">
         <v>143.1316361901922</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2240832461026</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>1.571150387881856</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>230.3187772707337</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>412.4298486781792</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.5197786803569</v>
+        <v>137.4760541040027</v>
       </c>
       <c r="U14" t="n">
         <v>251.11582180088</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H15" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I15" t="n">
-        <v>36.47348076827031</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.720873529840887</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S15" t="n">
         <v>143.1316361901922</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>84.7710564800843</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>8.14434277377711</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.249572729045383</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S16" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U17" t="n">
-        <v>118.5796179100792</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>354.427376577444</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1938,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H18" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I18" t="n">
-        <v>36.47348076827031</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.720873529840887</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S18" t="n">
         <v>143.1316361901922</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>136.456668163147</v>
       </c>
       <c r="U19" t="n">
-        <v>276.2714432896406</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H20" t="n">
-        <v>177.5166254234894</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.11582180088</v>
+        <v>118.5796179100783</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.3248704414177</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4394153930256</v>
+        <v>182.3343433702472</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H23" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>99.71884268366318</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>77.79778273982645</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>18.86077522641521</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7023003289308</v>
+        <v>74.79445972846682</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>7.114462299419101</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>178.1257731497033</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2570,7 +2570,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H26" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U26" t="n">
-        <v>118.5796179100783</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,10 +2649,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H27" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I27" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S27" t="n">
         <v>143.1316361901922</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.562315452643404</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>166.1548960939495</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H29" t="n">
-        <v>285.0783320102572</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>33.9625102093772</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,10 +2886,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H30" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I30" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S30" t="n">
         <v>143.1316361901922</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.2659905431839</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>222.4394153930256</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>227.7420464618382</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H32" t="n">
-        <v>177.5166254234903</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>185.3594893265938</v>
       </c>
       <c r="U32" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,10 +3123,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H33" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I33" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S33" t="n">
         <v>143.1316361901922</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>12.34991751045428</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.2798981308921</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>222.4394153930256</v>
@@ -3244,16 +3244,16 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H35" t="n">
-        <v>177.5166254234894</v>
+        <v>77.79778273982627</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H36" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I36" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S36" t="n">
         <v>143.1316361901922</v>
@@ -3475,22 +3475,22 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T37" t="n">
-        <v>221.1469688047388</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>66.64589839620879</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H38" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T38" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U38" t="n">
-        <v>136.0932550161921</v>
+        <v>74.55855332990052</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,10 +3597,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H39" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I39" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S39" t="n">
         <v>143.1316361901922</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.26054338344576</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>194.9195024535566</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.71884268366321</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>251.11582180088</v>
       </c>
       <c r="V41" t="n">
-        <v>51.66193936522042</v>
+        <v>95.49721189566786</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,10 +3834,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H42" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I42" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840958</v>
       </c>
       <c r="S42" t="n">
         <v>143.1316361901922</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>101.6660719228246</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>117.3968591482652</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3995,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I44" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366321</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U44" t="n">
-        <v>18.86077522641701</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>136.0932550161912</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4071,10 +4071,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H45" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I45" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840958</v>
       </c>
       <c r="S45" t="n">
         <v>143.1316361901922</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>99.22878338266867</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>116.1389380739729</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.212414302786</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.372765927088</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036437</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224061</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280441</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977172</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642686</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791249</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548712</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548712</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548712</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548712</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548712</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278598</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278598</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.212414302786</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="3">
@@ -4404,40 +4404,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036437</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615923</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572639</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770167</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.373795869717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.75453250489</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600549</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600549</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036437</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866324</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477906</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658203</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502491</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594891</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064331</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600549</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1744.740694543503</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1358.952441945259</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>947.9665371556514</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>530.0027290538383</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2164.575198516432</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1791.109440255352</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.109440255352</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="6">
@@ -4659,28 +4659,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4838,16 +4838,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2497.746673861499</v>
+        <v>2383.80799051105</v>
       </c>
       <c r="X8" t="n">
-        <v>2497.746673861499</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>388.7731165986622</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2440.378280303069</v>
+        <v>2339.652176582198</v>
       </c>
       <c r="C11" t="n">
-        <v>2071.415763362658</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="D11" t="n">
-        <v>1713.150064755907</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E11" t="n">
-        <v>1327.361812157663</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F11" t="n">
-        <v>916.3759073680556</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G11" t="n">
-        <v>499.78010062242</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H11" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I11" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J11" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017701</v>
       </c>
       <c r="K11" t="n">
-        <v>780.2368617726827</v>
+        <v>780.2368617726838</v>
       </c>
       <c r="L11" t="n">
         <v>1409.142484443882</v>
@@ -5057,34 +5057,34 @@
         <v>3467.2767091924</v>
       </c>
       <c r="P11" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q11" t="n">
-        <v>4263.17700571661</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R11" t="n">
-        <v>4293.466041325259</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S11" t="n">
-        <v>4148.461884543327</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T11" t="n">
-        <v>4148.461884543327</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="U11" t="n">
-        <v>3894.809539289913</v>
+        <v>4173.688649496896</v>
       </c>
       <c r="V11" t="n">
-        <v>3563.746651946342</v>
+        <v>3842.625762153325</v>
       </c>
       <c r="W11" t="n">
-        <v>3563.746651946342</v>
+        <v>3489.857106883211</v>
       </c>
       <c r="X11" t="n">
-        <v>3217.117452343003</v>
+        <v>3116.391348622131</v>
       </c>
       <c r="Y11" t="n">
-        <v>2826.978120367191</v>
+        <v>2726.25201664632</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G12" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H12" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I12" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J12" t="n">
-        <v>228.9031180673687</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K12" t="n">
-        <v>354.2606781252061</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L12" t="n">
-        <v>621.4814706688456</v>
+        <v>792.2189078541376</v>
       </c>
       <c r="M12" t="n">
-        <v>941.8167901985474</v>
+        <v>1498.133436413755</v>
       </c>
       <c r="N12" t="n">
-        <v>1286.337445836165</v>
+        <v>1842.654092051373</v>
       </c>
       <c r="O12" t="n">
-        <v>1897.15621135246</v>
+        <v>2091.407506135336</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.389053735492</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q12" t="n">
         <v>2634.034907031697</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.0585238552236</v>
+        <v>501.7741870840429</v>
       </c>
       <c r="C13" t="n">
-        <v>549.0585238552236</v>
+        <v>501.7741870840429</v>
       </c>
       <c r="D13" t="n">
-        <v>549.0585238552236</v>
+        <v>351.6575476717072</v>
       </c>
       <c r="E13" t="n">
-        <v>401.1454302728305</v>
+        <v>203.744454089314</v>
       </c>
       <c r="F13" t="n">
-        <v>254.2554827749201</v>
+        <v>203.744454089314</v>
       </c>
       <c r="G13" t="n">
-        <v>85.86932082650517</v>
+        <v>203.744454089314</v>
       </c>
       <c r="H13" t="n">
-        <v>85.86932082650517</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I13" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J13" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K13" t="n">
-        <v>212.0463858951881</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L13" t="n">
-        <v>429.0360225430047</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M13" t="n">
-        <v>668.2102932905838</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N13" t="n">
-        <v>907.132150882419</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O13" t="n">
         <v>1111.798861477226</v>
@@ -5218,31 +5218,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q13" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R13" t="n">
-        <v>1284.935687478693</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S13" t="n">
-        <v>1284.935687478693</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="T13" t="n">
-        <v>1284.935687478693</v>
+        <v>939.6941607139895</v>
       </c>
       <c r="U13" t="n">
-        <v>997.8406538967711</v>
+        <v>939.6941607139895</v>
       </c>
       <c r="V13" t="n">
-        <v>997.8406538967711</v>
+        <v>685.0096725081027</v>
       </c>
       <c r="W13" t="n">
-        <v>997.8406538967711</v>
+        <v>685.0096725081027</v>
       </c>
       <c r="X13" t="n">
-        <v>769.8511029987537</v>
+        <v>683.4226519142826</v>
       </c>
       <c r="Y13" t="n">
-        <v>549.0585238552236</v>
+        <v>683.4226519142826</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1848.126825283945</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C14" t="n">
-        <v>1479.164308343533</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D14" t="n">
-        <v>1120.898609736783</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E14" t="n">
-        <v>735.1103571385383</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F14" t="n">
-        <v>502.4651275721407</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G14" t="n">
-        <v>85.86932082650517</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H14" t="n">
-        <v>85.86932082650517</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I14" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J14" t="n">
-        <v>315.4340448017701</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K14" t="n">
-        <v>780.2368617726838</v>
+        <v>780.2368617726827</v>
       </c>
       <c r="L14" t="n">
-        <v>1409.142484443883</v>
+        <v>1409.142484443882</v>
       </c>
       <c r="M14" t="n">
-        <v>2125.527712279</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N14" t="n">
-        <v>2838.872804512374</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O14" t="n">
-        <v>3467.276709192401</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P14" t="n">
-        <v>3965.930520291105</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q14" t="n">
-        <v>4263.17700571661</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R14" t="n">
-        <v>4293.466041325259</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S14" t="n">
-        <v>4148.461884543327</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T14" t="n">
-        <v>3935.815643452057</v>
+        <v>4154.601340210103</v>
       </c>
       <c r="U14" t="n">
-        <v>3682.163298198643</v>
+        <v>3900.948994956688</v>
       </c>
       <c r="V14" t="n">
-        <v>3351.100410855072</v>
+        <v>3569.886107613117</v>
       </c>
       <c r="W14" t="n">
-        <v>2998.331755584958</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="X14" t="n">
-        <v>2624.865997323878</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y14" t="n">
-        <v>2234.726665348066</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G15" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H15" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I15" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J15" t="n">
-        <v>228.9031180673687</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K15" t="n">
-        <v>354.2606781252061</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L15" t="n">
-        <v>584.2237839935552</v>
+        <v>584.2237839935551</v>
       </c>
       <c r="M15" t="n">
-        <v>904.559103523257</v>
+        <v>908.0977982646874</v>
       </c>
       <c r="N15" t="n">
-        <v>1576.926810605847</v>
+        <v>1648.402797268498</v>
       </c>
       <c r="O15" t="n">
-        <v>2187.745576122141</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.389053735492</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q15" t="n">
         <v>2634.034907031697</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>736.0997797731102</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="C16" t="n">
-        <v>567.1635968452033</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D16" t="n">
-        <v>417.0469574328675</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E16" t="n">
-        <v>417.0469574328675</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F16" t="n">
-        <v>417.0469574328675</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G16" t="n">
-        <v>248.6607954844526</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H16" t="n">
-        <v>96.36822537481072</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I16" t="n">
-        <v>88.1416165124096</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J16" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K16" t="n">
-        <v>212.0463858951881</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L16" t="n">
-        <v>429.0360225430047</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M16" t="n">
-        <v>668.2102932905838</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N16" t="n">
-        <v>907.132150882419</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O16" t="n">
         <v>1111.798861477226</v>
@@ -5455,31 +5455,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q16" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R16" t="n">
-        <v>1164.380438888764</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S16" t="n">
-        <v>960.7860579478836</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="T16" t="n">
-        <v>736.0997797731102</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="U16" t="n">
-        <v>736.0997797731102</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="V16" t="n">
-        <v>736.0997797731102</v>
+        <v>909.6959506828761</v>
       </c>
       <c r="W16" t="n">
-        <v>736.0997797731102</v>
+        <v>620.2787806459155</v>
       </c>
       <c r="X16" t="n">
-        <v>736.0997797731102</v>
+        <v>392.2892297478982</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.0997797731102</v>
+        <v>171.4966506043681</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>399.0539969015481</v>
       </c>
       <c r="H17" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I17" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J17" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K17" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L17" t="n">
         <v>1409.142484443882</v>
@@ -5525,34 +5525,34 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N17" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O17" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P17" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q17" t="n">
-        <v>4263.17700571661</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R17" t="n">
-        <v>4293.466041325259</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S17" t="n">
-        <v>4293.466041325259</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T17" t="n">
-        <v>4293.466041325259</v>
+        <v>4080.819800233987</v>
       </c>
       <c r="U17" t="n">
-        <v>4173.688649496896</v>
+        <v>3827.167454980573</v>
       </c>
       <c r="V17" t="n">
-        <v>3842.625762153325</v>
+        <v>3827.167454980573</v>
       </c>
       <c r="W17" t="n">
-        <v>3489.857106883211</v>
+        <v>3474.398799710459</v>
       </c>
       <c r="X17" t="n">
         <v>3116.391348622131</v>
@@ -5583,34 +5583,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G18" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H18" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I18" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J18" t="n">
-        <v>104.0729930803639</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K18" t="n">
-        <v>229.4305531382013</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L18" t="n">
-        <v>459.3936590065505</v>
+        <v>782.0137735178605</v>
       </c>
       <c r="M18" t="n">
-        <v>1165.308187566168</v>
+        <v>1102.349093047562</v>
       </c>
       <c r="N18" t="n">
-        <v>1905.613186569979</v>
+        <v>1842.654092051373</v>
       </c>
       <c r="O18" t="n">
-        <v>2451.391429418346</v>
+        <v>2091.407506135336</v>
       </c>
       <c r="P18" t="n">
-        <v>2634.034907031697</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q18" t="n">
         <v>2634.034907031697</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>233.7824144088983</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="C19" t="n">
-        <v>233.7824144088983</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D19" t="n">
-        <v>233.7824144088983</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E19" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F19" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G19" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H19" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I19" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J19" t="n">
-        <v>85.86932082650517</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K19" t="n">
-        <v>212.0463858951881</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L19" t="n">
-        <v>429.0360225430047</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M19" t="n">
-        <v>668.2102932905838</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N19" t="n">
-        <v>907.132150882419</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O19" t="n">
         <v>1111.798861477226</v>
@@ -5692,31 +5692,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q19" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R19" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S19" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T19" t="n">
-        <v>1284.935687478693</v>
+        <v>1147.100669132079</v>
       </c>
       <c r="U19" t="n">
-        <v>1005.873623549763</v>
+        <v>857.96052996737</v>
       </c>
       <c r="V19" t="n">
-        <v>751.1891353438762</v>
+        <v>603.2760417614832</v>
       </c>
       <c r="W19" t="n">
-        <v>461.7719653069156</v>
+        <v>313.8588717245225</v>
       </c>
       <c r="X19" t="n">
-        <v>233.7824144088983</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="Y19" t="n">
-        <v>233.7824144088983</v>
+        <v>85.86932082650513</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2205.777223157144</v>
+        <v>2339.652176582198</v>
       </c>
       <c r="C20" t="n">
-        <v>1836.814706216732</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="D20" t="n">
-        <v>1478.549007609982</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E20" t="n">
-        <v>1092.760755011738</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F20" t="n">
-        <v>681.77485022213</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G20" t="n">
-        <v>265.1790434764945</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H20" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I20" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J20" t="n">
         <v>315.4340448017697</v>
@@ -5765,37 +5765,37 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O20" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.2767091924</v>
       </c>
       <c r="P20" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291104</v>
       </c>
       <c r="Q20" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.177005716609</v>
       </c>
       <c r="R20" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="S20" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="T20" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="U20" t="n">
-        <v>4039.813696071843</v>
+        <v>4173.688649496896</v>
       </c>
       <c r="V20" t="n">
-        <v>3708.750808728272</v>
+        <v>3842.625762153325</v>
       </c>
       <c r="W20" t="n">
-        <v>3355.982153458157</v>
+        <v>3489.857106883211</v>
       </c>
       <c r="X20" t="n">
-        <v>2982.516395197078</v>
+        <v>3116.391348622131</v>
       </c>
       <c r="Y20" t="n">
-        <v>2592.377063221266</v>
+        <v>2726.25201664632</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>221.0849523519937</v>
       </c>
       <c r="H21" t="n">
-        <v>122.7112205924347</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I21" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J21" t="n">
-        <v>85.86932082650513</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K21" t="n">
-        <v>456.9577055139845</v>
+        <v>457.0608233892762</v>
       </c>
       <c r="L21" t="n">
-        <v>710.5377868552087</v>
+        <v>687.0239292576254</v>
       </c>
       <c r="M21" t="n">
-        <v>1030.87310638491</v>
+        <v>1392.938457817243</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.178105388722</v>
+        <v>2133.243456821054</v>
       </c>
       <c r="O21" t="n">
         <v>2381.996870905016</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3532.953539993935</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="C22" t="n">
-        <v>3532.953539993935</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="D22" t="n">
-        <v>3532.953539993935</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="E22" t="n">
-        <v>3532.953539993935</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="F22" t="n">
-        <v>3532.953539993935</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="G22" t="n">
-        <v>3364.567378045519</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="H22" t="n">
-        <v>3212.274807935878</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I22" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J22" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K22" t="n">
-        <v>3220.576739741752</v>
+        <v>212.0463858951881</v>
       </c>
       <c r="L22" t="n">
-        <v>3437.566376389568</v>
+        <v>429.0360225430047</v>
       </c>
       <c r="M22" t="n">
-        <v>3676.740647137147</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N22" t="n">
-        <v>3915.662504728983</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O22" t="n">
-        <v>4120.32921532379</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P22" t="n">
-        <v>4271.936261275595</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q22" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="R22" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="S22" t="n">
-        <v>4089.871660384377</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="T22" t="n">
-        <v>3865.185382209604</v>
+        <v>1100.759583064302</v>
       </c>
       <c r="U22" t="n">
-        <v>3865.185382209604</v>
+        <v>811.6194438995923</v>
       </c>
       <c r="V22" t="n">
-        <v>3865.185382209604</v>
+        <v>556.9349556937054</v>
       </c>
       <c r="W22" t="n">
-        <v>3865.185382209604</v>
+        <v>267.5177856567449</v>
       </c>
       <c r="X22" t="n">
-        <v>3865.185382209604</v>
+        <v>267.5177856567449</v>
       </c>
       <c r="Y22" t="n">
-        <v>3644.392803066074</v>
+        <v>267.5177856567449</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2440.378280303069</v>
+        <v>2127.193604228027</v>
       </c>
       <c r="C23" t="n">
-        <v>2071.415763362658</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D23" t="n">
-        <v>1713.150064755907</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.361812157663</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F23" t="n">
-        <v>916.3759073680556</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G23" t="n">
-        <v>499.78010062242</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H23" t="n">
-        <v>186.5954245473771</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I23" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J23" t="n">
-        <v>315.4340448017701</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K23" t="n">
-        <v>780.2368617726838</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L23" t="n">
-        <v>1409.142484443883</v>
+        <v>1409.142484443882</v>
       </c>
       <c r="M23" t="n">
-        <v>2125.527712279</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N23" t="n">
         <v>2838.872804512373</v>
       </c>
       <c r="O23" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P23" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q23" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R23" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S23" t="n">
-        <v>4293.466041325258</v>
+        <v>4214.882422396139</v>
       </c>
       <c r="T23" t="n">
-        <v>4293.466041325258</v>
+        <v>4214.882422396139</v>
       </c>
       <c r="U23" t="n">
-        <v>4274.414753217768</v>
+        <v>3961.230077142725</v>
       </c>
       <c r="V23" t="n">
-        <v>3943.351865874197</v>
+        <v>3630.167189799155</v>
       </c>
       <c r="W23" t="n">
-        <v>3590.583210604083</v>
+        <v>3277.39853452904</v>
       </c>
       <c r="X23" t="n">
-        <v>3217.117452343003</v>
+        <v>2903.93277626796</v>
       </c>
       <c r="Y23" t="n">
-        <v>2826.978120367191</v>
+        <v>2513.793444292149</v>
       </c>
     </row>
     <row r="24">
@@ -6057,34 +6057,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H24" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I24" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J24" t="n">
-        <v>85.86932082650516</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K24" t="n">
-        <v>211.2268808843426</v>
+        <v>599.9915027548478</v>
       </c>
       <c r="L24" t="n">
-        <v>771.6054055345159</v>
+        <v>851.4083320311897</v>
       </c>
       <c r="M24" t="n">
-        <v>1303.882141630881</v>
+        <v>1171.743651560892</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.402797268498</v>
+        <v>1912.048650564702</v>
       </c>
       <c r="O24" t="n">
-        <v>1897.156211352461</v>
+        <v>2160.802064648665</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.389053735493</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="Q24" t="n">
         <v>2634.034907031697</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3876.641700042032</v>
+        <v>330.3554630760957</v>
       </c>
       <c r="C25" t="n">
-        <v>3707.705517114125</v>
+        <v>161.4192801481888</v>
       </c>
       <c r="D25" t="n">
-        <v>3557.588877701789</v>
+        <v>161.4192801481888</v>
       </c>
       <c r="E25" t="n">
-        <v>3409.675784119396</v>
+        <v>161.4192801481888</v>
       </c>
       <c r="F25" t="n">
-        <v>3262.785836621485</v>
+        <v>161.4192801481888</v>
       </c>
       <c r="G25" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H25" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I25" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J25" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K25" t="n">
-        <v>3220.576739741753</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L25" t="n">
-        <v>3437.56637638957</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M25" t="n">
-        <v>3676.740647137149</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N25" t="n">
-        <v>3915.662504728984</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O25" t="n">
-        <v>4120.329215323791</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P25" t="n">
-        <v>4271.936261275596</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q25" t="n">
-        <v>4293.466041325258</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R25" t="n">
-        <v>4293.466041325258</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S25" t="n">
-        <v>4293.466041325258</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T25" t="n">
-        <v>4293.466041325258</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="U25" t="n">
-        <v>4293.466041325258</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="V25" t="n">
-        <v>4293.466041325258</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="W25" t="n">
-        <v>4286.279715770289</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="X25" t="n">
-        <v>4058.290164872271</v>
+        <v>732.7965070498656</v>
       </c>
       <c r="Y25" t="n">
-        <v>4058.290164872271</v>
+        <v>512.0039279063354</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2339.652176582198</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C26" t="n">
-        <v>1970.689659641786</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D26" t="n">
-        <v>1612.423961035036</v>
+        <v>1299.239284959993</v>
       </c>
       <c r="E26" t="n">
-        <v>1226.635708436791</v>
+        <v>913.4510323617483</v>
       </c>
       <c r="F26" t="n">
-        <v>815.6498036471836</v>
+        <v>502.4651275721407</v>
       </c>
       <c r="G26" t="n">
-        <v>399.0539969015481</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H26" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I26" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J26" t="n">
         <v>315.4340448017697</v>
       </c>
       <c r="K26" t="n">
-        <v>780.2368617726829</v>
+        <v>780.2368617726834</v>
       </c>
       <c r="L26" t="n">
         <v>1409.142484443882</v>
@@ -6245,31 +6245,31 @@
         <v>3965.930520291103</v>
       </c>
       <c r="Q26" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R26" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S26" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T26" t="n">
-        <v>4293.466041325258</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U26" t="n">
-        <v>4173.688649496896</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V26" t="n">
-        <v>3842.625762153325</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W26" t="n">
-        <v>3489.857106883211</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X26" t="n">
-        <v>3116.391348622131</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y26" t="n">
-        <v>2726.25201664632</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G27" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H27" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I27" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J27" t="n">
-        <v>85.86932082650516</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K27" t="n">
-        <v>368.0045072029138</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L27" t="n">
-        <v>597.9676130712629</v>
+        <v>914.6392027753793</v>
       </c>
       <c r="M27" t="n">
-        <v>1303.882141630881</v>
+        <v>1620.553731334997</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.402797268498</v>
+        <v>1842.654092051373</v>
       </c>
       <c r="O27" t="n">
-        <v>1897.156211352461</v>
+        <v>2091.407506135336</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.389053735493</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q27" t="n">
         <v>2634.034907031697</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="C28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="D28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="E28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="F28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="G28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K28" t="n">
         <v>212.046385895188</v>
       </c>
       <c r="L28" t="n">
-        <v>429.0360225430046</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M28" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N28" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O28" t="n">
         <v>1111.798861477226</v>
@@ -6403,31 +6403,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q28" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R28" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S28" t="n">
-        <v>1081.341306537813</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T28" t="n">
-        <v>1078.7531091109</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="U28" t="n">
-        <v>1078.7531091109</v>
+        <v>771.1092701392099</v>
       </c>
       <c r="V28" t="n">
-        <v>824.0686209050132</v>
+        <v>603.2760417614832</v>
       </c>
       <c r="W28" t="n">
-        <v>534.6514508680526</v>
+        <v>313.8588717245225</v>
       </c>
       <c r="X28" t="n">
-        <v>306.6618999700353</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2314.425411628627</v>
+        <v>2026.467500507155</v>
       </c>
       <c r="C29" t="n">
-        <v>1945.462894688215</v>
+        <v>1657.504983566743</v>
       </c>
       <c r="D29" t="n">
-        <v>1587.197196081464</v>
+        <v>1299.239284959993</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.40894348322</v>
+        <v>913.4510323617483</v>
       </c>
       <c r="F29" t="n">
-        <v>790.4230386936126</v>
+        <v>502.4651275721407</v>
       </c>
       <c r="G29" t="n">
-        <v>373.8272319479771</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H29" t="n">
         <v>85.86932082650513</v>
@@ -6461,10 +6461,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J29" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K29" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L29" t="n">
         <v>1409.142484443882</v>
@@ -6473,13 +6473,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N29" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O29" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P29" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q29" t="n">
         <v>4263.177005716608</v>
@@ -6491,22 +6491,22 @@
         <v>4148.461884543325</v>
       </c>
       <c r="T29" t="n">
-        <v>4148.461884543325</v>
+        <v>4114.156318675267</v>
       </c>
       <c r="U29" t="n">
-        <v>4148.461884543325</v>
+        <v>3860.503973421853</v>
       </c>
       <c r="V29" t="n">
-        <v>3817.398997199754</v>
+        <v>3529.441086078282</v>
       </c>
       <c r="W29" t="n">
-        <v>3464.63034192964</v>
+        <v>3176.672430808168</v>
       </c>
       <c r="X29" t="n">
-        <v>3091.16458366856</v>
+        <v>2803.206672547088</v>
       </c>
       <c r="Y29" t="n">
-        <v>2701.025251692748</v>
+        <v>2413.067340571276</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6546,13 @@
         <v>599.9915027548478</v>
       </c>
       <c r="L30" t="n">
-        <v>1160.370027405021</v>
+        <v>829.9546086231969</v>
       </c>
       <c r="M30" t="n">
-        <v>1480.705346934723</v>
+        <v>1535.869137182814</v>
       </c>
       <c r="N30" t="n">
-        <v>1825.226002572341</v>
+        <v>2133.243456821054</v>
       </c>
       <c r="O30" t="n">
         <v>2381.996870905016</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.86932082650513</v>
+        <v>541.0667989656359</v>
       </c>
       <c r="C31" t="n">
-        <v>85.86932082650513</v>
+        <v>372.130616037729</v>
       </c>
       <c r="D31" t="n">
-        <v>85.86932082650513</v>
+        <v>372.130616037729</v>
       </c>
       <c r="E31" t="n">
-        <v>85.86932082650513</v>
+        <v>372.130616037729</v>
       </c>
       <c r="F31" t="n">
-        <v>85.86932082650513</v>
+        <v>372.130616037729</v>
       </c>
       <c r="G31" t="n">
-        <v>85.86932082650513</v>
+        <v>203.744454089314</v>
       </c>
       <c r="H31" t="n">
-        <v>85.86932082650513</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I31" t="n">
         <v>85.86932082650513</v>
@@ -6628,10 +6628,10 @@
         <v>429.0360225430045</v>
       </c>
       <c r="M31" t="n">
-        <v>668.2102932905835</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N31" t="n">
-        <v>907.1321508824186</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O31" t="n">
         <v>1111.798861477226</v>
@@ -6640,31 +6640,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q31" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R31" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S31" t="n">
-        <v>1082.646808142143</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T31" t="n">
-        <v>857.96052996737</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="U31" t="n">
-        <v>857.96052996737</v>
+        <v>771.1092701392099</v>
       </c>
       <c r="V31" t="n">
-        <v>603.2760417614832</v>
+        <v>541.0667989656359</v>
       </c>
       <c r="W31" t="n">
-        <v>313.8588717245225</v>
+        <v>541.0667989656359</v>
       </c>
       <c r="X31" t="n">
-        <v>85.86932082650513</v>
+        <v>541.0667989656359</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.86932082650513</v>
+        <v>541.0667989656359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2205.777223157145</v>
+        <v>2127.193604228027</v>
       </c>
       <c r="C32" t="n">
-        <v>1836.814706216733</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D32" t="n">
-        <v>1478.549007609983</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E32" t="n">
-        <v>1092.760755011738</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F32" t="n">
-        <v>681.7748502221309</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G32" t="n">
-        <v>265.1790434764954</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H32" t="n">
-        <v>85.86932082650516</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I32" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J32" t="n">
-        <v>315.4340448017697</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K32" t="n">
         <v>780.2368617726829</v>
@@ -6719,31 +6719,31 @@
         <v>3965.930520291103</v>
       </c>
       <c r="Q32" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R32" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S32" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T32" t="n">
-        <v>4293.466041325258</v>
+        <v>3961.230077142725</v>
       </c>
       <c r="U32" t="n">
-        <v>4039.813696071843</v>
+        <v>3961.230077142725</v>
       </c>
       <c r="V32" t="n">
-        <v>3708.750808728273</v>
+        <v>3630.167189799155</v>
       </c>
       <c r="W32" t="n">
-        <v>3355.982153458158</v>
+        <v>3277.39853452904</v>
       </c>
       <c r="X32" t="n">
-        <v>2982.516395197079</v>
+        <v>2903.93277626796</v>
       </c>
       <c r="Y32" t="n">
-        <v>2592.377063221267</v>
+        <v>2513.793444292149</v>
       </c>
     </row>
     <row r="33">
@@ -6768,31 +6768,31 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G33" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H33" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I33" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J33" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K33" t="n">
-        <v>211.2268808843426</v>
+        <v>211.2268808843425</v>
       </c>
       <c r="L33" t="n">
         <v>771.6054055345159</v>
       </c>
       <c r="M33" t="n">
-        <v>1232.406154968229</v>
+        <v>1091.940725064218</v>
       </c>
       <c r="N33" t="n">
-        <v>1576.926810605847</v>
+        <v>1436.461380701835</v>
       </c>
       <c r="O33" t="n">
-        <v>2187.745576122142</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P33" t="n">
         <v>2370.389053735493</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3094.39967467307</v>
+        <v>516.4247819333231</v>
       </c>
       <c r="C34" t="n">
-        <v>3094.39967467307</v>
+        <v>503.950117781349</v>
       </c>
       <c r="D34" t="n">
-        <v>3094.39967467307</v>
+        <v>503.950117781349</v>
       </c>
       <c r="E34" t="n">
-        <v>3094.39967467307</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="F34" t="n">
-        <v>3094.39967467307</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="G34" t="n">
-        <v>3094.39967467307</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="H34" t="n">
-        <v>3094.39967467307</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I34" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J34" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K34" t="n">
-        <v>3220.576739741753</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L34" t="n">
-        <v>3437.56637638957</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M34" t="n">
-        <v>3676.740647137149</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N34" t="n">
-        <v>3915.662504728984</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O34" t="n">
-        <v>4120.329215323791</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P34" t="n">
-        <v>4271.936261275596</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q34" t="n">
-        <v>4293.466041325258</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R34" t="n">
-        <v>4293.466041325258</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S34" t="n">
-        <v>4118.435841193043</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T34" t="n">
-        <v>3893.74956301827</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="U34" t="n">
-        <v>3604.609423853561</v>
+        <v>771.1092701392099</v>
       </c>
       <c r="V34" t="n">
-        <v>3604.609423853561</v>
+        <v>516.4247819333231</v>
       </c>
       <c r="W34" t="n">
-        <v>3315.1922538166</v>
+        <v>516.4247819333231</v>
       </c>
       <c r="X34" t="n">
-        <v>3315.1922538166</v>
+        <v>516.4247819333231</v>
       </c>
       <c r="Y34" t="n">
-        <v>3094.39967467307</v>
+        <v>516.4247819333231</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>265.1790434764945</v>
       </c>
       <c r="H35" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I35" t="n">
         <v>85.86932082650513</v>
@@ -6938,16 +6938,16 @@
         <v>315.4340448017696</v>
       </c>
       <c r="K35" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L35" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M35" t="n">
-        <v>2125.527712278998</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N35" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O35" t="n">
         <v>3467.276709192399</v>
@@ -7014,22 +7014,22 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J36" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K36" t="n">
-        <v>354.260678125206</v>
+        <v>211.2268808843425</v>
       </c>
       <c r="L36" t="n">
-        <v>914.6392027753793</v>
+        <v>687.0239292576255</v>
       </c>
       <c r="M36" t="n">
-        <v>1620.553731334997</v>
+        <v>1392.938457817243</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.074386972615</v>
+        <v>2133.243456821054</v>
       </c>
       <c r="O36" t="n">
-        <v>2213.827801056577</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P36" t="n">
         <v>2564.640348518367</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="C37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="D37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="E37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="F37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="G37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="H37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="I37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="J37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
       <c r="K37" t="n">
         <v>3220.576739741752</v>
@@ -7123,22 +7123,22 @@
         <v>4089.871660384377</v>
       </c>
       <c r="T37" t="n">
-        <v>3866.490883813934</v>
+        <v>3865.185382209604</v>
       </c>
       <c r="U37" t="n">
-        <v>3866.490883813934</v>
+        <v>3797.866292920504</v>
       </c>
       <c r="V37" t="n">
-        <v>3611.806395608047</v>
+        <v>3543.181804714617</v>
       </c>
       <c r="W37" t="n">
-        <v>3322.389225571086</v>
+        <v>3543.181804714617</v>
       </c>
       <c r="X37" t="n">
-        <v>3094.399674673069</v>
+        <v>3315.1922538166</v>
       </c>
       <c r="Y37" t="n">
-        <v>3094.399674673069</v>
+        <v>3094.39967467307</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2440.378280303069</v>
+        <v>2026.467500507155</v>
       </c>
       <c r="C38" t="n">
-        <v>2071.415763362658</v>
+        <v>1657.504983566743</v>
       </c>
       <c r="D38" t="n">
-        <v>1713.150064755907</v>
+        <v>1299.239284959993</v>
       </c>
       <c r="E38" t="n">
-        <v>1327.361812157663</v>
+        <v>913.4510323617483</v>
       </c>
       <c r="F38" t="n">
-        <v>916.3759073680556</v>
+        <v>502.4651275721407</v>
       </c>
       <c r="G38" t="n">
-        <v>499.78010062242</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H38" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I38" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J38" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K38" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L38" t="n">
         <v>1409.142484443882</v>
@@ -7184,13 +7184,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N38" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O38" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P38" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q38" t="n">
         <v>4263.177005716608</v>
@@ -7199,25 +7199,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S38" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T38" t="n">
-        <v>4080.819800233987</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U38" t="n">
-        <v>3943.351865874197</v>
+        <v>3860.503973421853</v>
       </c>
       <c r="V38" t="n">
-        <v>3943.351865874197</v>
+        <v>3529.441086078282</v>
       </c>
       <c r="W38" t="n">
-        <v>3590.583210604083</v>
+        <v>3176.672430808168</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.117452343003</v>
+        <v>2803.206672547088</v>
       </c>
       <c r="Y38" t="n">
-        <v>2826.978120367191</v>
+        <v>2413.067340571276</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J39" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K39" t="n">
-        <v>354.260678125206</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="L39" t="n">
-        <v>584.2237839935551</v>
+        <v>103.7637715689415</v>
       </c>
       <c r="M39" t="n">
-        <v>904.5591035232569</v>
+        <v>809.678300128559</v>
       </c>
       <c r="N39" t="n">
-        <v>1286.337445836166</v>
+        <v>1549.98329913237</v>
       </c>
       <c r="O39" t="n">
-        <v>1897.156211352461</v>
+        <v>2160.802064648665</v>
       </c>
       <c r="P39" t="n">
-        <v>2370.389053735493</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="Q39" t="n">
         <v>2634.034907031697</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.86932082650513</v>
+        <v>254.805503754412</v>
       </c>
       <c r="C40" t="n">
         <v>85.86932082650513</v>
@@ -7339,10 +7339,10 @@
         <v>429.0360225430045</v>
       </c>
       <c r="M40" t="n">
-        <v>668.2102932905835</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N40" t="n">
-        <v>907.1321508824186</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O40" t="n">
         <v>1111.798861477226</v>
@@ -7351,31 +7351,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q40" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R40" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S40" t="n">
-        <v>1081.341306537813</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T40" t="n">
-        <v>856.6550283630393</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U40" t="n">
-        <v>856.6550283630393</v>
+        <v>995.7955483139833</v>
       </c>
       <c r="V40" t="n">
-        <v>856.6550283630393</v>
+        <v>741.1110601080965</v>
       </c>
       <c r="W40" t="n">
-        <v>567.2378583260786</v>
+        <v>451.6938900711359</v>
       </c>
       <c r="X40" t="n">
-        <v>339.2483074280613</v>
+        <v>451.6938900711359</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.4557282845311</v>
+        <v>254.805503754412</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2339.652176582198</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C41" t="n">
-        <v>1970.689659641786</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D41" t="n">
-        <v>1612.423961035036</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.635708436791</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F41" t="n">
-        <v>815.6498036471836</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G41" t="n">
-        <v>399.0539969015481</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H41" t="n">
-        <v>85.86932082650516</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I41" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J41" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K41" t="n">
-        <v>780.2368617726828</v>
+        <v>780.2368617726827</v>
       </c>
       <c r="L41" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M41" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712278998</v>
       </c>
       <c r="N41" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O41" t="n">
-        <v>3467.2767091924</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P41" t="n">
-        <v>3965.930520291104</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q41" t="n">
-        <v>4263.177005716609</v>
+        <v>4263.177005716607</v>
       </c>
       <c r="R41" t="n">
-        <v>4293.466041325258</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="S41" t="n">
-        <v>4148.461884543326</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="T41" t="n">
-        <v>4148.461884543326</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="U41" t="n">
-        <v>3894.809539289912</v>
+        <v>4039.813696071842</v>
       </c>
       <c r="V41" t="n">
-        <v>3842.625762153325</v>
+        <v>3943.351865874197</v>
       </c>
       <c r="W41" t="n">
-        <v>3489.857106883211</v>
+        <v>3590.583210604083</v>
       </c>
       <c r="X41" t="n">
-        <v>3116.391348622131</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y41" t="n">
-        <v>2726.25201664632</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="42">
@@ -7479,34 +7479,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H42" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I42" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J42" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="K42" t="n">
-        <v>354.260678125206</v>
+        <v>211.2268808843425</v>
       </c>
       <c r="L42" t="n">
-        <v>584.2237839935551</v>
+        <v>441.1899867526917</v>
       </c>
       <c r="M42" t="n">
-        <v>904.5591035232569</v>
+        <v>1147.104515312309</v>
       </c>
       <c r="N42" t="n">
-        <v>1286.337445836166</v>
+        <v>1887.40951431612</v>
       </c>
       <c r="O42" t="n">
-        <v>1897.156211352461</v>
+        <v>2381.996870905016</v>
       </c>
       <c r="P42" t="n">
-        <v>2370.389053735493</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q42" t="n">
         <v>2634.034907031697</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>203.7444540893141</v>
+        <v>654.5050926069052</v>
       </c>
       <c r="C43" t="n">
-        <v>203.7444540893141</v>
+        <v>485.5689096789984</v>
       </c>
       <c r="D43" t="n">
-        <v>203.7444540893141</v>
+        <v>335.4522702666626</v>
       </c>
       <c r="E43" t="n">
-        <v>203.7444540893141</v>
+        <v>232.7592683244155</v>
       </c>
       <c r="F43" t="n">
-        <v>203.7444540893141</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="G43" t="n">
-        <v>203.7444540893141</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="H43" t="n">
-        <v>203.7444540893141</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="I43" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J43" t="n">
-        <v>85.86932082650516</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="K43" t="n">
-        <v>212.046385895188</v>
+        <v>212.0463858951879</v>
       </c>
       <c r="L43" t="n">
-        <v>429.0360225430046</v>
+        <v>429.0360225430044</v>
       </c>
       <c r="M43" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N43" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O43" t="n">
         <v>1111.798861477226</v>
@@ -7588,31 +7588,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q43" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R43" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S43" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T43" t="n">
-        <v>1060.249409303919</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U43" t="n">
-        <v>771.1092701392101</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="V43" t="n">
-        <v>771.1092701392101</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="W43" t="n">
-        <v>652.5265841308615</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="X43" t="n">
-        <v>424.5370332328442</v>
+        <v>1056.946136580675</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.7444540893141</v>
+        <v>836.153557437145</v>
       </c>
     </row>
     <row r="44">
@@ -7640,46 +7640,46 @@
         <v>499.78010062242</v>
       </c>
       <c r="H44" t="n">
-        <v>186.5954245473771</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I44" t="n">
-        <v>85.86932082650519</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J44" t="n">
-        <v>315.4340448017713</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K44" t="n">
-        <v>780.2368617726847</v>
+        <v>780.2368617726828</v>
       </c>
       <c r="L44" t="n">
-        <v>1409.142484443884</v>
+        <v>1409.142484443881</v>
       </c>
       <c r="M44" t="n">
-        <v>2125.527712279001</v>
+        <v>2125.527712278998</v>
       </c>
       <c r="N44" t="n">
-        <v>2838.872804512375</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O44" t="n">
-        <v>3467.276709192402</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P44" t="n">
-        <v>3965.930520291105</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q44" t="n">
-        <v>4263.17700571661</v>
+        <v>4263.177005716607</v>
       </c>
       <c r="R44" t="n">
-        <v>4293.46604132526</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="S44" t="n">
-        <v>4293.46604132526</v>
+        <v>4293.466041325256</v>
       </c>
       <c r="T44" t="n">
-        <v>4293.46604132526</v>
+        <v>4080.819800233986</v>
       </c>
       <c r="U44" t="n">
-        <v>4274.414753217768</v>
+        <v>4080.819800233986</v>
       </c>
       <c r="V44" t="n">
         <v>3943.351865874197</v>
@@ -7716,34 +7716,34 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G45" t="n">
-        <v>221.0849523519938</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H45" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I45" t="n">
-        <v>85.86932082650519</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J45" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="K45" t="n">
-        <v>354.260678125206</v>
+        <v>211.2268808843425</v>
       </c>
       <c r="L45" t="n">
-        <v>914.6392027753793</v>
+        <v>621.4814706688466</v>
       </c>
       <c r="M45" t="n">
-        <v>1392.938457817243</v>
+        <v>941.8167901985483</v>
       </c>
       <c r="N45" t="n">
-        <v>2133.243456821054</v>
+        <v>1286.337445836166</v>
       </c>
       <c r="O45" t="n">
-        <v>2381.996870905016</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P45" t="n">
-        <v>2564.640348518367</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q45" t="n">
         <v>2634.034907031697</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>532.9649320164506</v>
+        <v>338.3929852620749</v>
       </c>
       <c r="C46" t="n">
-        <v>532.9649320164506</v>
+        <v>338.3929852620749</v>
       </c>
       <c r="D46" t="n">
-        <v>532.9649320164506</v>
+        <v>238.161890936147</v>
       </c>
       <c r="E46" t="n">
-        <v>385.0518384340575</v>
+        <v>238.161890936147</v>
       </c>
       <c r="F46" t="n">
-        <v>238.1618909361471</v>
+        <v>238.161890936147</v>
       </c>
       <c r="G46" t="n">
-        <v>238.1618909361471</v>
+        <v>238.161890936147</v>
       </c>
       <c r="H46" t="n">
-        <v>85.86932082650519</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="I46" t="n">
-        <v>85.86932082650519</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J46" t="n">
-        <v>85.86932082650519</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="K46" t="n">
-        <v>212.0463858951881</v>
+        <v>212.0463858951879</v>
       </c>
       <c r="L46" t="n">
-        <v>429.0360225430046</v>
+        <v>429.0360225430044</v>
       </c>
       <c r="M46" t="n">
-        <v>668.2102932905836</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N46" t="n">
-        <v>907.1321508824187</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O46" t="n">
         <v>1111.798861477226</v>
@@ -7825,31 +7825,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q46" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R46" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S46" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T46" t="n">
-        <v>939.69416071399</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U46" t="n">
-        <v>939.69416071399</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="V46" t="n">
-        <v>822.3821020534112</v>
+        <v>1030.251199272805</v>
       </c>
       <c r="W46" t="n">
-        <v>532.9649320164506</v>
+        <v>740.8340292358448</v>
       </c>
       <c r="X46" t="n">
-        <v>532.9649320164506</v>
+        <v>740.8340292358448</v>
       </c>
       <c r="Y46" t="n">
-        <v>532.9649320164506</v>
+        <v>520.0414500923147</v>
       </c>
     </row>
   </sheetData>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T11" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>132.5362038908026</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>26.56819307116371</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H13" t="n">
         <v>150.7696444085454</v>
       </c>
       <c r="I13" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.249572729045383</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>201.5584371314712</v>
       </c>
       <c r="T13" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.024654526959523</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>224.1385050011553</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>176.5572684709777</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>99.71884268366314</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>73.04372457635415</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>95.060923701853</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I16" t="n">
-        <v>108.5520391564037</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U16" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>99.71884268366314</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,19 +23783,19 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>132.5362038908008</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>15.30372410102501</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23911,7 +23911,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J19" t="n">
-        <v>2.249572729045383</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4394153930256</v>
+        <v>85.98274722987858</v>
       </c>
       <c r="U19" t="n">
-        <v>9.977294483421531</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>132.536203890803</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>99.71884268366315</v>
@@ -24023,7 +24023,7 @@
         <v>210.5197786803569</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>132.5362038908017</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.50710974051964</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J22" t="n">
         <v>2.249572729045397</v>
@@ -24175,25 +24175,25 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>40.10507202277842</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,13 +24254,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.5541152141125</v>
+        <v>65.75633247428608</v>
       </c>
       <c r="T23" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U23" t="n">
-        <v>232.2550465744648</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>91.90784060046397</v>
       </c>
       <c r="H25" t="n">
         <v>150.7696444085454</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>222.4394153930256</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>279.4085360371719</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>176.5572684709797</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I26" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24491,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>132.5362038908017</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24622,7 +24622,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J28" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T28" t="n">
-        <v>219.8770999403822</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>85.98274722987853</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>24.97449730403525</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I29" t="n">
-        <v>99.71884268366317</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24731,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5197786803569</v>
+        <v>176.5572684709797</v>
       </c>
       <c r="U29" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>150.7696444085454</v>
       </c>
       <c r="I31" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S31" t="n">
-        <v>1.292446588287333</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>24.39559686198979</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24932,10 +24932,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>132.5362038908021</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I32" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24965,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.5197786803569</v>
+        <v>25.16028935376309</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>154.8969035881736</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,13 +25090,13 @@
         <v>166.7023003289308</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S34" t="n">
-        <v>28.27853900057906</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25169,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>132.536203890803</v>
+        <v>232.2550465744662</v>
       </c>
       <c r="I35" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25333,7 +25333,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J37" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.29244658828685</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2487377730621</v>
+        <v>219.6028393768533</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25439,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>115.0225667846879</v>
+        <v>176.5572684709795</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>147.5714367984915</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25570,7 +25570,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J40" t="n">
-        <v>2.249572729045411</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,25 +25597,25 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>23.66515089853823</v>
       </c>
     </row>
     <row r="41">
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T41" t="n">
         <v>210.5197786803569</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>276.0903191049145</v>
+        <v>232.255046574467</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>44.76789072374453</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.7023003289308</v>
@@ -25804,10 +25804,10 @@
         <v>150.7696444085454</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J43" t="n">
-        <v>2.249572729045411</v>
+        <v>2.24957272904544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25837,16 +25837,16 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>169.1261391883258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T44" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>232.255046574463</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>191.6590034539437</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>49.38668963554369</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.7023003289308</v>
@@ -26044,7 +26044,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J46" t="n">
-        <v>2.249572729045411</v>
+        <v>2.24957272904544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S46" t="n">
         <v>201.5584371314712</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U46" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V46" t="n">
-        <v>135.9987052498551</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>748232.9449907425</v>
+        <v>748232.9449907421</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>748232.9449907423</v>
+        <v>748232.944990742</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>748232.9449907424</v>
+        <v>748232.9449907421</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>748232.944990742</v>
+        <v>748232.9449907421</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>748232.9449907423</v>
+        <v>748232.9449907421</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>748232.9449907421</v>
+        <v>748232.944990742</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>748232.9449907421</v>
+        <v>748232.944990742</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>748232.9449907421</v>
+        <v>748232.944990742</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>748232.9449907423</v>
+        <v>748232.944990742</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>748232.9449907424</v>
+        <v>748232.944990742</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>529237.9367007682</v>
+        <v>529237.9367007683</v>
       </c>
       <c r="F2" t="n">
         <v>529237.9367007684</v>
       </c>
       <c r="G2" t="n">
-        <v>529237.9367007685</v>
+        <v>529237.9367007684</v>
       </c>
       <c r="H2" t="n">
-        <v>529237.9367007685</v>
+        <v>529237.9367007684</v>
       </c>
       <c r="I2" t="n">
-        <v>529237.9367007685</v>
+        <v>529237.9367007683</v>
       </c>
       <c r="J2" t="n">
         <v>529237.9367007685</v>
@@ -26341,19 +26341,19 @@
         <v>529237.9367007683</v>
       </c>
       <c r="L2" t="n">
-        <v>529237.9367007685</v>
+        <v>529237.9367007682</v>
       </c>
       <c r="M2" t="n">
         <v>529237.9367007684</v>
       </c>
       <c r="N2" t="n">
-        <v>529237.9367007682</v>
+        <v>529237.9367007684</v>
       </c>
       <c r="O2" t="n">
         <v>529237.9367007683</v>
       </c>
       <c r="P2" t="n">
-        <v>529237.9367007688</v>
+        <v>529237.9367007687</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145435</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>9.60714631405041e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>389812.6557155699</v>
+        <v>389812.6557155694</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99452.14232107866</v>
+        <v>99452.14232107854</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806193</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>714.7644130400807</v>
+        <v>714.7644130400806</v>
       </c>
       <c r="F4" t="n">
-        <v>714.7644130400807</v>
+        <v>714.7644130400806</v>
       </c>
       <c r="G4" t="n">
-        <v>714.7644130400809</v>
+        <v>714.7644130400806</v>
       </c>
       <c r="H4" t="n">
         <v>714.7644130400809</v>
       </c>
       <c r="I4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
       <c r="J4" t="n">
         <v>714.7644130400806</v>
       </c>
       <c r="K4" t="n">
+        <v>714.7644130400807</v>
+      </c>
+      <c r="L4" t="n">
         <v>714.7644130400806</v>
-      </c>
-      <c r="L4" t="n">
-        <v>714.7644130400807</v>
       </c>
       <c r="M4" t="n">
         <v>714.7644130400806</v>
       </c>
       <c r="N4" t="n">
-        <v>714.7644130400807</v>
+        <v>714.7644130400806</v>
       </c>
       <c r="O4" t="n">
-        <v>714.7644130400807</v>
+        <v>714.7644130400806</v>
       </c>
       <c r="P4" t="n">
-        <v>714.7644130400809</v>
+        <v>714.7644130400805</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.0780634094</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,28 +26476,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>80839.64176874659</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="F5" t="n">
-        <v>80839.64176874659</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="G5" t="n">
-        <v>80839.64176874659</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="H5" t="n">
+        <v>80839.64176874657</v>
+      </c>
+      <c r="I5" t="n">
         <v>80839.64176874656</v>
       </c>
-      <c r="I5" t="n">
-        <v>80839.64176874657</v>
-      </c>
       <c r="J5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="K5" t="n">
         <v>80839.64176874656</v>
       </c>
       <c r="L5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="M5" t="n">
         <v>80839.64176874656</v>
@@ -26506,10 +26506,10 @@
         <v>80839.64176874656</v>
       </c>
       <c r="O5" t="n">
-        <v>80839.64176874657</v>
+        <v>80839.64176874654</v>
       </c>
       <c r="P5" t="n">
-        <v>80839.6417687466</v>
+        <v>80839.64176874654</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069672</v>
+        <v>-216630.8133069683</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075752</v>
+        <v>373337.0659075761</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075761</v>
+        <v>373337.0659075764</v>
       </c>
       <c r="E6" t="n">
-        <v>57870.87480341167</v>
+        <v>57870.87480341224</v>
       </c>
       <c r="F6" t="n">
         <v>447683.5305189817</v>
       </c>
       <c r="G6" t="n">
-        <v>447683.5305189818</v>
+        <v>447683.5305189817</v>
       </c>
       <c r="H6" t="n">
-        <v>447683.530518982</v>
+        <v>447683.5305189817</v>
       </c>
       <c r="I6" t="n">
-        <v>447683.530518982</v>
+        <v>447683.5305189819</v>
       </c>
       <c r="J6" t="n">
-        <v>271260.3113263891</v>
+        <v>271260.311326389</v>
       </c>
       <c r="K6" t="n">
         <v>447683.5305189816</v>
       </c>
       <c r="L6" t="n">
-        <v>447683.5305189819</v>
+        <v>447683.5305189815</v>
       </c>
       <c r="M6" t="n">
-        <v>348231.3881979031</v>
+        <v>348231.3881979032</v>
       </c>
       <c r="N6" t="n">
-        <v>447683.5305189815</v>
+        <v>447683.5305189817</v>
       </c>
       <c r="O6" t="n">
-        <v>447683.5305189816</v>
+        <v>447683.5305189817</v>
       </c>
       <c r="P6" t="n">
         <v>447683.530518982</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170859</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>714.6310981927828</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="F3" t="n">
-        <v>714.6310981927828</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="G3" t="n">
-        <v>714.6310981927828</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="H3" t="n">
         <v>714.6310981927827</v>
@@ -26759,25 +26759,25 @@
         <v>714.6310981927825</v>
       </c>
       <c r="J3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="K3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="L3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="M3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="N3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="O3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927824</v>
       </c>
       <c r="P3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927824</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545547</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1073.366510331315</v>
+        <v>1073.366510331314</v>
       </c>
       <c r="F4" t="n">
-        <v>1073.366510331315</v>
+        <v>1073.366510331314</v>
       </c>
       <c r="G4" t="n">
-        <v>1073.366510331315</v>
+        <v>1073.366510331314</v>
       </c>
       <c r="H4" t="n">
         <v>1073.366510331314</v>
@@ -26829,7 +26829,7 @@
         <v>1073.366510331314</v>
       </c>
       <c r="P4" t="n">
-        <v>1073.366510331315</v>
+        <v>1073.366510331314</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170859</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336.8874339756962</v>
+        <v>336.8874339756958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545547</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>8.908642664214901e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.0792375767592</v>
+        <v>399.0792375767586</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.079237576759</v>
+        <v>399.0792375767585</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545547</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>8.908642664214901e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.0792375767592</v>
+        <v>399.0792375767586</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>247.6610973137229</v>
+        <v>298.1962939206272</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643572</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.050093593832571e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735912</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>4.554939248079336</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>247.6326954579011</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>230.6199858141418</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>184.8222680597909</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>93.51168179012444</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735776</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>64.86073846146218</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340043</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140997</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554455</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727433</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081574</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630665</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405362</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338299</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119861</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954662</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044134</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633779</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727376</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.64752920647354</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472034</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141093</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188899</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890684</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396462</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649099</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478004</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M3" t="n">
-        <v>190.1500580638394</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736696</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923043</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479574</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034972</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.0919284713147</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372658</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619142</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078598</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492001</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813568</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302224</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246922</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666592</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175825</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383784</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329677997</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701158</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695333</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197218</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315603</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.872888836955909</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H11" t="n">
-        <v>29.42197280147471</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I11" t="n">
-        <v>110.7570468867428</v>
+        <v>110.7570468867427</v>
       </c>
       <c r="J11" t="n">
-        <v>243.8328489255868</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K11" t="n">
-        <v>365.4422333939305</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L11" t="n">
-        <v>453.3634051379199</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M11" t="n">
-        <v>504.4541419921346</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N11" t="n">
-        <v>512.6167374001355</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O11" t="n">
-        <v>484.0494490276552</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P11" t="n">
-        <v>413.1250058653062</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q11" t="n">
-        <v>310.2396743918226</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R11" t="n">
-        <v>180.4641034044318</v>
+        <v>180.4641034044317</v>
       </c>
       <c r="S11" t="n">
-        <v>65.46595437213283</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T11" t="n">
-        <v>12.5760708837745</v>
+        <v>12.57607088377449</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2298311069564727</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H12" t="n">
-        <v>14.8454497945331</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I12" t="n">
-        <v>52.92315208314477</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J12" t="n">
-        <v>145.2251743978372</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>37.6340269447378</v>
+        <v>210.096084707659</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>365.7225772043763</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>293.5246108784659</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.2134290736109</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>95.43696062280225</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S12" t="n">
-        <v>28.5515349136456</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T12" t="n">
-        <v>6.195716785275162</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U12" t="n">
-        <v>0.101127042197092</v>
+        <v>0.1011270421970919</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.288679029527969</v>
+        <v>1.288679029527968</v>
       </c>
       <c r="H13" t="n">
         <v>11.45752809889413</v>
       </c>
       <c r="I13" t="n">
-        <v>38.75409299707748</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J13" t="n">
-        <v>91.10960738762739</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K13" t="n">
-        <v>149.7210727033404</v>
+        <v>149.7210727033403</v>
       </c>
       <c r="L13" t="n">
-        <v>191.5914258990946</v>
+        <v>191.5914258990945</v>
       </c>
       <c r="M13" t="n">
-        <v>202.0062955104615</v>
+        <v>202.0062955104614</v>
       </c>
       <c r="N13" t="n">
-        <v>197.2030373094938</v>
+        <v>197.2030373094937</v>
       </c>
       <c r="O13" t="n">
-        <v>182.1489231918261</v>
+        <v>182.148923191826</v>
       </c>
       <c r="P13" t="n">
-        <v>155.8598709894554</v>
+        <v>155.8598709894553</v>
       </c>
       <c r="Q13" t="n">
         <v>107.9092958271102</v>
       </c>
       <c r="R13" t="n">
-        <v>57.94369527313938</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S13" t="n">
-        <v>22.45816090550105</v>
+        <v>22.45816090550104</v>
       </c>
       <c r="T13" t="n">
-        <v>5.506174035255865</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07029158342879838</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.872888836955909</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H14" t="n">
-        <v>29.42197280147471</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I14" t="n">
-        <v>110.7570468867428</v>
+        <v>110.7570468867427</v>
       </c>
       <c r="J14" t="n">
-        <v>243.8328489255868</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K14" t="n">
-        <v>365.4422333939305</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L14" t="n">
-        <v>453.3634051379199</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M14" t="n">
-        <v>504.4541419921346</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N14" t="n">
-        <v>512.6167374001355</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O14" t="n">
-        <v>484.0494490276552</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P14" t="n">
-        <v>413.1250058653062</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q14" t="n">
-        <v>310.2396743918226</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R14" t="n">
-        <v>180.4641034044318</v>
+        <v>180.4641034044317</v>
       </c>
       <c r="S14" t="n">
-        <v>65.46595437213283</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T14" t="n">
-        <v>12.5760708837745</v>
+        <v>12.57607088377449</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2298311069564727</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H15" t="n">
-        <v>14.8454497945331</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I15" t="n">
-        <v>52.92315208314477</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J15" t="n">
-        <v>145.2251743978372</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32084,31 +32084,31 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3.57443913275813</v>
       </c>
       <c r="N15" t="n">
-        <v>331.1586378232037</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O15" t="n">
-        <v>365.7225772043763</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q15" t="n">
-        <v>196.2134290736109</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R15" t="n">
-        <v>95.43696062280225</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S15" t="n">
-        <v>28.5515349136456</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T15" t="n">
-        <v>6.195716785275162</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U15" t="n">
-        <v>0.101127042197092</v>
+        <v>0.1011270421970919</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.288679029527969</v>
+        <v>1.288679029527968</v>
       </c>
       <c r="H16" t="n">
         <v>11.45752809889413</v>
       </c>
       <c r="I16" t="n">
-        <v>38.75409299707748</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J16" t="n">
-        <v>91.10960738762739</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K16" t="n">
-        <v>149.7210727033404</v>
+        <v>149.7210727033403</v>
       </c>
       <c r="L16" t="n">
-        <v>191.5914258990946</v>
+        <v>191.5914258990945</v>
       </c>
       <c r="M16" t="n">
-        <v>202.0062955104615</v>
+        <v>202.0062955104614</v>
       </c>
       <c r="N16" t="n">
-        <v>197.2030373094938</v>
+        <v>197.2030373094937</v>
       </c>
       <c r="O16" t="n">
-        <v>182.1489231918261</v>
+        <v>182.148923191826</v>
       </c>
       <c r="P16" t="n">
-        <v>155.8598709894554</v>
+        <v>155.8598709894553</v>
       </c>
       <c r="Q16" t="n">
         <v>107.9092958271102</v>
       </c>
       <c r="R16" t="n">
-        <v>57.94369527313938</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S16" t="n">
-        <v>22.45816090550105</v>
+        <v>22.45816090550104</v>
       </c>
       <c r="T16" t="n">
-        <v>5.506174035255865</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07029158342879838</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.872888836955909</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H17" t="n">
-        <v>29.42197280147471</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I17" t="n">
-        <v>110.7570468867428</v>
+        <v>110.7570468867427</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8328489255868</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K17" t="n">
-        <v>365.4422333939305</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L17" t="n">
-        <v>453.3634051379199</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M17" t="n">
-        <v>504.4541419921346</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N17" t="n">
-        <v>512.6167374001355</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O17" t="n">
-        <v>484.0494490276552</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P17" t="n">
-        <v>413.1250058653062</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q17" t="n">
-        <v>310.2396743918226</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R17" t="n">
-        <v>180.4641034044318</v>
+        <v>180.4641034044317</v>
       </c>
       <c r="S17" t="n">
-        <v>65.46595437213283</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T17" t="n">
-        <v>12.5760708837745</v>
+        <v>12.57607088377449</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2298311069564727</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H18" t="n">
-        <v>14.8454497945331</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I18" t="n">
-        <v>52.92315208314477</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J18" t="n">
-        <v>145.2251743978372</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>199.7878682063691</v>
       </c>
       <c r="M18" t="n">
-        <v>389.4739485150666</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>399.7821650163569</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O18" t="n">
-        <v>300.0250795600039</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.43696062280225</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S18" t="n">
-        <v>28.5515349136456</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T18" t="n">
-        <v>6.195716785275162</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U18" t="n">
-        <v>0.101127042197092</v>
+        <v>0.1011270421970919</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.288679029527969</v>
+        <v>1.288679029527968</v>
       </c>
       <c r="H19" t="n">
         <v>11.45752809889413</v>
       </c>
       <c r="I19" t="n">
-        <v>38.75409299707748</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J19" t="n">
-        <v>91.10960738762739</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K19" t="n">
-        <v>149.7210727033404</v>
+        <v>149.7210727033403</v>
       </c>
       <c r="L19" t="n">
-        <v>191.5914258990946</v>
+        <v>191.5914258990945</v>
       </c>
       <c r="M19" t="n">
-        <v>202.0062955104615</v>
+        <v>202.0062955104614</v>
       </c>
       <c r="N19" t="n">
-        <v>197.2030373094938</v>
+        <v>197.2030373094937</v>
       </c>
       <c r="O19" t="n">
-        <v>182.1489231918261</v>
+        <v>182.148923191826</v>
       </c>
       <c r="P19" t="n">
-        <v>155.8598709894554</v>
+        <v>155.8598709894553</v>
       </c>
       <c r="Q19" t="n">
         <v>107.9092958271102</v>
       </c>
       <c r="R19" t="n">
-        <v>57.94369527313938</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S19" t="n">
-        <v>22.45816090550105</v>
+        <v>22.45816090550104</v>
       </c>
       <c r="T19" t="n">
-        <v>5.506174035255865</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07029158342879838</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>52.92315208314476</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K21" t="n">
-        <v>248.2129541713555</v>
+        <v>103.8385305697679</v>
       </c>
       <c r="L21" t="n">
-        <v>23.85553078068182</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N21" t="n">
         <v>399.7821650163568</v>
       </c>
       <c r="O21" t="n">
-        <v>365.7225772043763</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>52.92315208314475</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>248.2129541713554</v>
       </c>
       <c r="L24" t="n">
-        <v>333.7529482644689</v>
+        <v>21.67042768484117</v>
       </c>
       <c r="M24" t="n">
-        <v>214.0822389562252</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>293.5246108784658</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.2134290736108</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>95.4369606228022</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H26" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I26" t="n">
         <v>110.7570468867427</v>
@@ -32950,16 +32950,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L26" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M26" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N26" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O26" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P26" t="n">
         <v>413.125005865306</v>
@@ -32971,13 +32971,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S26" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T26" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,28 +33014,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H27" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I27" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K27" t="n">
-        <v>158.3612387056275</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M27" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>355.6855107867437</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33044,16 +33044,16 @@
         <v>293.5246108784658</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.2134290736108</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S27" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T27" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U27" t="n">
         <v>0.1011270421970919</v>
@@ -33102,7 +33102,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J28" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K28" t="n">
         <v>149.7210727033403</v>
@@ -33126,16 +33126,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R28" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S28" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T28" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H29" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I29" t="n">
         <v>110.7570468867427</v>
@@ -33187,16 +33187,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L29" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M29" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N29" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O29" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P29" t="n">
         <v>413.125005865306</v>
@@ -33208,13 +33208,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S29" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T29" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H30" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I30" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J30" t="n">
         <v>145.2251743978371</v>
@@ -33266,16 +33266,16 @@
         <v>248.2129541713554</v>
       </c>
       <c r="L30" t="n">
-        <v>333.7529482644689</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>255.4077414147694</v>
       </c>
       <c r="O30" t="n">
-        <v>311.1287416653669</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33284,13 +33284,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S30" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T30" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U30" t="n">
         <v>0.1011270421970919</v>
@@ -33339,7 +33339,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J31" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K31" t="n">
         <v>149.7210727033403</v>
@@ -33363,16 +33363,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R31" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S31" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T31" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H32" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I32" t="n">
         <v>110.7570468867427</v>
@@ -33424,16 +33424,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L32" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M32" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N32" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O32" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P32" t="n">
         <v>413.125005865306</v>
@@ -33445,13 +33445,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S32" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T32" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H33" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I33" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33506,28 +33506,28 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M33" t="n">
-        <v>141.8842726303147</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>365.7225772043762</v>
+        <v>214.0822389562254</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q33" t="n">
         <v>196.2134290736108</v>
       </c>
       <c r="R33" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S33" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T33" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U33" t="n">
         <v>0.1011270421970919</v>
@@ -33576,7 +33576,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J34" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K34" t="n">
         <v>149.7210727033403</v>
@@ -33600,16 +33600,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R34" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S34" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T34" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H35" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I35" t="n">
         <v>110.7570468867427</v>
@@ -33661,16 +33661,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L35" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M35" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N35" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O35" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P35" t="n">
         <v>413.125005865306</v>
@@ -33682,13 +33682,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S35" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T35" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H36" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I36" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J36" t="n">
-        <v>145.2251743978371</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>333.7529482644689</v>
+        <v>248.3171136413472</v>
       </c>
       <c r="M36" t="n">
-        <v>389.4739485150665</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>169.8677473216562</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S36" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T36" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U36" t="n">
         <v>0.1011270421970919</v>
@@ -33813,7 +33813,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J37" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K37" t="n">
         <v>149.7210727033403</v>
@@ -33837,16 +33837,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R37" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S37" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T37" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H38" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I38" t="n">
         <v>110.7570468867427</v>
@@ -33898,16 +33898,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L38" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M38" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N38" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O38" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P38" t="n">
         <v>413.125005865306</v>
@@ -33919,13 +33919,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S38" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T38" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H39" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I39" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J39" t="n">
-        <v>145.2251743978371</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>156.6295825500119</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N39" t="n">
-        <v>37.63402694473859</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O39" t="n">
-        <v>365.7225772043762</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P39" t="n">
         <v>293.5246108784658</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.2134290736108</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S39" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T39" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U39" t="n">
         <v>0.1011270421970919</v>
@@ -34050,7 +34050,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J40" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K40" t="n">
         <v>149.7210727033403</v>
@@ -34074,16 +34074,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R40" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S40" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T40" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H41" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I41" t="n">
         <v>110.7570468867427</v>
       </c>
       <c r="J41" t="n">
-        <v>243.8328489255867</v>
+        <v>243.8328489255866</v>
       </c>
       <c r="K41" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939302</v>
       </c>
       <c r="L41" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379196</v>
       </c>
       <c r="M41" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921342</v>
       </c>
       <c r="N41" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001352</v>
       </c>
       <c r="O41" t="n">
-        <v>484.0494490276551</v>
+        <v>484.0494490276549</v>
       </c>
       <c r="P41" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653059</v>
       </c>
       <c r="Q41" t="n">
-        <v>310.2396743918225</v>
+        <v>310.2396743918224</v>
       </c>
       <c r="R41" t="n">
-        <v>180.4641034044317</v>
+        <v>180.4641034044316</v>
       </c>
       <c r="S41" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T41" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H42" t="n">
-        <v>14.84544979453309</v>
+        <v>14.84544979453308</v>
       </c>
       <c r="I42" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314474</v>
       </c>
       <c r="J42" t="n">
-        <v>145.2251743978371</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34217,28 +34217,28 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N42" t="n">
-        <v>37.63402694473859</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O42" t="n">
-        <v>365.7225772043762</v>
+        <v>248.3171136413472</v>
       </c>
       <c r="P42" t="n">
-        <v>293.5246108784658</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.2134290736108</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.43696062280222</v>
+        <v>95.43696062280218</v>
       </c>
       <c r="S42" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T42" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275158</v>
       </c>
       <c r="U42" t="n">
         <v>0.1011270421970919</v>
@@ -34281,13 +34281,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H43" t="n">
-        <v>11.45752809889413</v>
+        <v>11.45752809889412</v>
       </c>
       <c r="I43" t="n">
-        <v>38.75409299707746</v>
+        <v>38.75409299707745</v>
       </c>
       <c r="J43" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762734</v>
       </c>
       <c r="K43" t="n">
         <v>149.7210727033403</v>
@@ -34308,19 +34308,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.9092958271102</v>
+        <v>107.9092958271101</v>
       </c>
       <c r="R43" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313935</v>
       </c>
       <c r="S43" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T43" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255862</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879833</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H44" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I44" t="n">
         <v>110.7570468867427</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8328489255884</v>
+        <v>243.8328489255866</v>
       </c>
       <c r="K44" t="n">
-        <v>365.4422333939303</v>
+        <v>365.4422333939302</v>
       </c>
       <c r="L44" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379196</v>
       </c>
       <c r="M44" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921342</v>
       </c>
       <c r="N44" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001352</v>
       </c>
       <c r="O44" t="n">
-        <v>484.0494490276551</v>
+        <v>484.0494490276549</v>
       </c>
       <c r="P44" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653059</v>
       </c>
       <c r="Q44" t="n">
-        <v>310.2396743918225</v>
+        <v>310.2396743918224</v>
       </c>
       <c r="R44" t="n">
         <v>180.4641034044317</v>
       </c>
       <c r="S44" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T44" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H45" t="n">
-        <v>14.84544979453309</v>
+        <v>14.84544979453308</v>
       </c>
       <c r="I45" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314474</v>
       </c>
       <c r="J45" t="n">
-        <v>145.2251743978371</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>333.7529482644689</v>
+        <v>182.1126100163181</v>
       </c>
       <c r="M45" t="n">
-        <v>159.5595308203656</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>399.7821650163568</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>293.5246108784657</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R45" t="n">
-        <v>95.43696062280222</v>
+        <v>95.43696062280218</v>
       </c>
       <c r="S45" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T45" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275158</v>
       </c>
       <c r="U45" t="n">
         <v>0.1011270421970919</v>
@@ -34518,13 +34518,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H46" t="n">
-        <v>11.45752809889413</v>
+        <v>11.45752809889412</v>
       </c>
       <c r="I46" t="n">
-        <v>38.75409299707746</v>
+        <v>38.75409299707745</v>
       </c>
       <c r="J46" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762734</v>
       </c>
       <c r="K46" t="n">
         <v>149.7210727033403</v>
@@ -34545,19 +34545,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.9092958271102</v>
+        <v>107.9092958271101</v>
       </c>
       <c r="R46" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313935</v>
       </c>
       <c r="S46" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T46" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255862</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879833</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343416</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.814464806096</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492231</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530447</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116793</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770676</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031296</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713854</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
-        <v>513.721087891821</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338898</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245894</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735643</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713938</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850083</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535653</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458878</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557979</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873132</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>231.8835595709743</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K11" t="n">
-        <v>469.4977949201146</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L11" t="n">
-        <v>635.2582047183831</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M11" t="n">
-        <v>723.6214422576943</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N11" t="n">
-        <v>720.5505982155288</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O11" t="n">
-        <v>634.7514188687138</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P11" t="n">
-        <v>503.6907182815193</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.2489751772778</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R11" t="n">
-        <v>30.59498546328209</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>144.4785830715793</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>269.9199924683228</v>
+        <v>442.382050231244</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>616.9886520366614</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>478.0129721040728</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q12" t="n">
-        <v>266.3089427234385</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>127.4515808774575</v>
+        <v>127.4515808774574</v>
       </c>
       <c r="L13" t="n">
-        <v>219.1814511594108</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M13" t="n">
-        <v>241.5901724723021</v>
+        <v>241.590172472302</v>
       </c>
       <c r="N13" t="n">
-        <v>241.3352096887224</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O13" t="n">
         <v>206.7340511058657</v>
       </c>
       <c r="P13" t="n">
-        <v>153.1384302543489</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.74725257541581</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>231.8835595709743</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K14" t="n">
-        <v>469.4977949201146</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L14" t="n">
-        <v>635.2582047183831</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M14" t="n">
-        <v>723.6214422576943</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N14" t="n">
-        <v>720.5505982155288</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O14" t="n">
-        <v>634.7514188687138</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P14" t="n">
-        <v>503.6907182815193</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.2489751772778</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R14" t="n">
-        <v>30.59498546328209</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>144.4785830715793</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K15" t="n">
         <v>126.6237980382196</v>
@@ -35732,19 +35732,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>327.1454689607397</v>
       </c>
       <c r="N15" t="n">
-        <v>679.1593000834239</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O15" t="n">
-        <v>616.9886520366614</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.3089427234385</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>127.4515808774575</v>
+        <v>127.4515808774574</v>
       </c>
       <c r="L16" t="n">
-        <v>219.1814511594108</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M16" t="n">
-        <v>241.5901724723021</v>
+        <v>241.590172472302</v>
       </c>
       <c r="N16" t="n">
-        <v>241.3352096887224</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O16" t="n">
         <v>206.7340511058657</v>
       </c>
       <c r="P16" t="n">
-        <v>153.1384302543489</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.74725257541581</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>231.8835595709743</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K17" t="n">
-        <v>469.4977949201146</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L17" t="n">
-        <v>635.2582047183831</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M17" t="n">
-        <v>723.6214422576943</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N17" t="n">
-        <v>720.5505982155288</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O17" t="n">
-        <v>634.7514188687138</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P17" t="n">
-        <v>503.6907182815193</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.2489751772778</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R17" t="n">
-        <v>30.59498546328209</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.38754773117046</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>432.0738337299541</v>
       </c>
       <c r="M18" t="n">
-        <v>713.0449783430481</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7828272765771</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O18" t="n">
-        <v>551.2911543922889</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>127.4515808774575</v>
+        <v>127.4515808774574</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1814511594108</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M19" t="n">
-        <v>241.5901724723021</v>
+        <v>241.590172472302</v>
       </c>
       <c r="N19" t="n">
-        <v>241.3352096887224</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O19" t="n">
         <v>206.7340511058657</v>
       </c>
       <c r="P19" t="n">
-        <v>153.1384302543489</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.74725257541581</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>144.4785830715793</v>
       </c>
       <c r="K21" t="n">
-        <v>374.8367522095751</v>
+        <v>230.4623286079875</v>
       </c>
       <c r="L21" t="n">
-        <v>256.1414963042668</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N21" t="n">
         <v>747.7828272765771</v>
       </c>
       <c r="O21" t="n">
-        <v>616.9886520366613</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L24" t="n">
-        <v>566.0389137880538</v>
+        <v>253.9563932084262</v>
       </c>
       <c r="M24" t="n">
-        <v>537.6532687842068</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
@@ -36455,7 +36455,7 @@
         <v>478.0129721040727</v>
       </c>
       <c r="Q24" t="n">
-        <v>266.3089427234383</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K26" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L26" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M26" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N26" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O26" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P26" t="n">
         <v>503.6907182815191</v>
@@ -36616,7 +36616,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R26" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K27" t="n">
-        <v>284.9850367438471</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M27" t="n">
-        <v>713.0449783430481</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>224.3437987034105</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
@@ -36692,7 +36692,7 @@
         <v>478.0129721040727</v>
       </c>
       <c r="Q27" t="n">
-        <v>266.3089427234384</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L28" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M28" t="n">
         <v>241.590172472302</v>
@@ -36771,7 +36771,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K29" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L29" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M29" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N29" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O29" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P29" t="n">
         <v>503.6907182815191</v>
@@ -36853,7 +36853,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R29" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>374.836752209575</v>
       </c>
       <c r="L30" t="n">
-        <v>566.0389137880538</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>603.4084036749896</v>
       </c>
       <c r="O30" t="n">
-        <v>562.394816497652</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -36993,7 +36993,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L31" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M31" t="n">
         <v>241.590172472302</v>
@@ -37008,7 +37008,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K32" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L32" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M32" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N32" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O32" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P32" t="n">
         <v>503.6907182815191</v>
@@ -37090,7 +37090,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R32" t="n">
-        <v>30.59498546328203</v>
+        <v>30.59498546328192</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>566.0389137880538</v>
       </c>
       <c r="M33" t="n">
-        <v>465.4553024582963</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>616.9886520366613</v>
+        <v>465.3483137885105</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q33" t="n">
-        <v>266.3089427234384</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L34" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M34" t="n">
         <v>241.590172472302</v>
@@ -37245,7 +37245,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K35" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L35" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M35" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N35" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O35" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P35" t="n">
         <v>503.6907182815191</v>
@@ -37327,7 +37327,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R35" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>566.0389137880538</v>
+        <v>480.6030791649322</v>
       </c>
       <c r="M36" t="n">
-        <v>713.0449783430481</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O36" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>354.3561085472631</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37467,7 +37467,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L37" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M37" t="n">
         <v>241.590172472302</v>
@@ -37482,7 +37482,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K38" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L38" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M38" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N38" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O38" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P38" t="n">
         <v>503.6907182815191</v>
@@ -37564,7 +37564,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R38" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>18.07520277013773</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N39" t="n">
-        <v>385.6346892049588</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O39" t="n">
         <v>616.9886520366613</v>
@@ -37640,7 +37640,7 @@
         <v>478.0129721040727</v>
       </c>
       <c r="Q39" t="n">
-        <v>266.3089427234384</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L40" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M40" t="n">
         <v>241.590172472302</v>
@@ -37719,7 +37719,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K41" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201144</v>
       </c>
       <c r="L41" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183828</v>
       </c>
       <c r="M41" t="n">
-        <v>723.6214422576942</v>
+        <v>723.621442257694</v>
       </c>
       <c r="N41" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155285</v>
       </c>
       <c r="O41" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P41" t="n">
-        <v>503.6907182815191</v>
+        <v>503.690718281519</v>
       </c>
       <c r="Q41" t="n">
-        <v>300.2489751772777</v>
+        <v>300.2489751772776</v>
       </c>
       <c r="R41" t="n">
-        <v>30.59498546328203</v>
+        <v>30.59498546328192</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>126.6237980382196</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430479</v>
       </c>
       <c r="N42" t="n">
-        <v>385.6346892049588</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O42" t="n">
-        <v>616.9886520366613</v>
+        <v>499.5831884736323</v>
       </c>
       <c r="P42" t="n">
-        <v>478.0129721040727</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>266.3089427234384</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,22 +37941,22 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L43" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M43" t="n">
         <v>241.590172472302</v>
       </c>
       <c r="N43" t="n">
-        <v>241.3352096887223</v>
+        <v>241.3352096887222</v>
       </c>
       <c r="O43" t="n">
-        <v>206.7340511058657</v>
+        <v>206.7340511058656</v>
       </c>
       <c r="P43" t="n">
-        <v>153.1384302543488</v>
+        <v>153.1384302543487</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541574</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>231.8835595709759</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K44" t="n">
-        <v>469.4977949201145</v>
+        <v>469.4977949201144</v>
       </c>
       <c r="L44" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183828</v>
       </c>
       <c r="M44" t="n">
-        <v>723.6214422576942</v>
+        <v>723.621442257694</v>
       </c>
       <c r="N44" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155285</v>
       </c>
       <c r="O44" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P44" t="n">
-        <v>503.6907182815191</v>
+        <v>503.690718281519</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.2489751772777</v>
+        <v>300.2489751772776</v>
       </c>
       <c r="R44" t="n">
-        <v>30.59498546328203</v>
+        <v>30.59498546328197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>566.0389137880538</v>
+        <v>414.3985755399031</v>
       </c>
       <c r="M45" t="n">
-        <v>483.1305606483472</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>747.782827276577</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366612</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>478.0129721040726</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,22 +38178,22 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L46" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M46" t="n">
         <v>241.590172472302</v>
       </c>
       <c r="N46" t="n">
-        <v>241.3352096887223</v>
+        <v>241.3352096887222</v>
       </c>
       <c r="O46" t="n">
-        <v>206.7340511058657</v>
+        <v>206.7340511058656</v>
       </c>
       <c r="P46" t="n">
-        <v>153.1384302543488</v>
+        <v>153.1384302543487</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541574</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2620147.984426444</v>
+        <v>2612975.129788161</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774120.2934193143</v>
+        <v>578368.2845496907</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>158.5066589688255</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852174</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>262.0130880685285</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>138.5106747089388</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>95.2820080202213</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.41402108404358</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>351.7751653885841</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.77699516265576</v>
+        <v>14.77699516265575</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>190.2072075264479</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>220.7944124161532</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>30.62158254570669</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0622202054666</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>29.44019828142425</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.6927476007837</v>
+        <v>50.85019043813116</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0309045537395</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.61513542872091</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>76.42847837627625</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>305.3702766339235</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>142.3407393867361</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>50.05665370612868</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>92.25914996241522</v>
       </c>
       <c r="W13" t="n">
-        <v>282.3369942161448</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>103.6823614795158</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.8496969969102</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170.6749938329</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>138.4795612693794</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>181.6851090328747</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>59.31602548752679</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710065</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.61735453424316</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>255.0988518041</v>
+        <v>268.4727720186116</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.67696407195068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>147.5472273995715</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>42.38146084883432</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>162.0545320670389</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>39.54523647285818</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>228.6494705232573</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>256.5063620977151</v>
+        <v>416.6140984298621</v>
       </c>
       <c r="C2" t="n">
         <v>256.5063620977151</v>
@@ -4318,16 +4318,16 @@
         <v>256.5063620977151</v>
       </c>
       <c r="F2" t="n">
-        <v>249.5608613485117</v>
+        <v>249.5608613485116</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1970013446416</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446416</v>
+        <v>234.1970013446415</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4336,46 +4336,46 @@
         <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885138</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q2" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>682.5151428254849</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>682.5151428254849</v>
       </c>
       <c r="V2" t="n">
-        <v>788.3084508889608</v>
+        <v>682.5151428254849</v>
       </c>
       <c r="W2" t="n">
-        <v>522.4074064933379</v>
+        <v>682.5151428254849</v>
       </c>
       <c r="X2" t="n">
-        <v>256.5063620977151</v>
+        <v>682.5151428254849</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.5063620977151</v>
+        <v>682.5151428254849</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>656.6735125174404</v>
+        <v>469.1409998161117</v>
       </c>
       <c r="C3" t="n">
-        <v>656.6735125174404</v>
+        <v>469.1409998161117</v>
       </c>
       <c r="D3" t="n">
-        <v>507.7391028561891</v>
+        <v>320.2065901548604</v>
       </c>
       <c r="E3" t="n">
-        <v>507.7391028561891</v>
+        <v>160.9691351494049</v>
       </c>
       <c r="F3" t="n">
-        <v>361.204544883074</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G3" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683209</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683209</v>
+        <v>150.3077404146695</v>
       </c>
       <c r="L3" t="n">
-        <v>24.95018035683209</v>
+        <v>390.911268309532</v>
       </c>
       <c r="M3" t="n">
-        <v>285.559793968982</v>
+        <v>390.911268309532</v>
       </c>
       <c r="N3" t="n">
-        <v>546.169407581132</v>
+        <v>621.5712441093533</v>
       </c>
       <c r="O3" t="n">
-        <v>794.9228216650943</v>
+        <v>870.3246581933156</v>
       </c>
       <c r="P3" t="n">
-        <v>986.9241963431928</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>858.6585701023645</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>656.6735125174404</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>656.6735125174404</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V3" t="n">
-        <v>656.6735125174404</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W3" t="n">
-        <v>656.6735125174404</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X3" t="n">
-        <v>656.6735125174404</v>
+        <v>845.1166356011336</v>
       </c>
       <c r="Y3" t="n">
-        <v>656.6735125174404</v>
+        <v>637.3563368361797</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>35.61897997274301</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>35.61897997274301</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
         <v>21.05936271613333</v>
@@ -4494,7 +4494,7 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M4" t="n">
         <v>100.1098670955239</v>
@@ -4506,34 +4506,34 @@
         <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>600.3202880392084</v>
+        <v>1165.879813846199</v>
       </c>
       <c r="C5" t="n">
-        <v>244.9918381517497</v>
+        <v>796.917296905787</v>
       </c>
       <c r="D5" t="n">
-        <v>244.9918381517497</v>
+        <v>438.6515982990365</v>
       </c>
       <c r="E5" t="n">
-        <v>244.9918381517497</v>
+        <v>52.86334570079224</v>
       </c>
       <c r="F5" t="n">
-        <v>238.0463374025462</v>
+        <v>45.91784495158877</v>
       </c>
       <c r="G5" t="n">
-        <v>223.1200796624899</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="H5" t="n">
-        <v>223.1200796624899</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="I5" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="J5" t="n">
-        <v>63.33729848931807</v>
+        <v>63.33729848931844</v>
       </c>
       <c r="K5" t="n">
-        <v>232.5599391817365</v>
+        <v>232.5599391817374</v>
       </c>
       <c r="L5" t="n">
-        <v>494.7722161923825</v>
+        <v>494.772216192384</v>
       </c>
       <c r="M5" t="n">
-        <v>803.1404427365686</v>
+        <v>803.1404427365708</v>
       </c>
       <c r="N5" t="n">
-        <v>1101.866392029482</v>
+        <v>1101.866392029485</v>
       </c>
       <c r="O5" t="n">
-        <v>1338.757197245513</v>
+        <v>1338.757197245516</v>
       </c>
       <c r="P5" t="n">
-        <v>1503.263635927382</v>
+        <v>1503.263635927386</v>
       </c>
       <c r="Q5" t="n">
-        <v>1549.579360576618</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="R5" t="n">
-        <v>1549.579360576618</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="S5" t="n">
-        <v>1549.579360576618</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="T5" t="n">
-        <v>1326.554701570402</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="U5" t="n">
-        <v>1326.554701570402</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="V5" t="n">
-        <v>1326.554701570402</v>
+        <v>1518.648469116313</v>
       </c>
       <c r="W5" t="n">
-        <v>973.7860463002883</v>
+        <v>1165.879813846199</v>
       </c>
       <c r="X5" t="n">
-        <v>600.3202880392084</v>
+        <v>1165.879813846199</v>
       </c>
       <c r="Y5" t="n">
-        <v>600.3202880392084</v>
+        <v>1165.879813846199</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653.8822709492238</v>
+        <v>660.1510391324813</v>
       </c>
       <c r="C6" t="n">
-        <v>653.8822709492238</v>
+        <v>485.6980098513542</v>
       </c>
       <c r="D6" t="n">
-        <v>504.9478612879725</v>
+        <v>336.763600190103</v>
       </c>
       <c r="E6" t="n">
-        <v>345.710406282517</v>
+        <v>177.5261451846475</v>
       </c>
       <c r="F6" t="n">
-        <v>199.175848309402</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="G6" t="n">
-        <v>60.72916123317302</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="H6" t="n">
-        <v>60.72916123317302</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="I6" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="J6" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="K6" t="n">
-        <v>43.46028864604176</v>
+        <v>156.3491472693699</v>
       </c>
       <c r="L6" t="n">
-        <v>333.8898411555539</v>
+        <v>386.312253137719</v>
       </c>
       <c r="M6" t="n">
-        <v>654.2251606852557</v>
+        <v>706.6475726674208</v>
       </c>
       <c r="N6" t="n">
-        <v>998.7458163228737</v>
+        <v>1051.168228305039</v>
       </c>
       <c r="O6" t="n">
-        <v>1313.757655433463</v>
+        <v>1297.541324449943</v>
       </c>
       <c r="P6" t="n">
-        <v>1549.579360576618</v>
+        <v>1480.184802063293</v>
       </c>
       <c r="Q6" t="n">
-        <v>1549.579360576618</v>
+        <v>1549.579360576623</v>
       </c>
       <c r="R6" t="n">
-        <v>1466.051332697038</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="S6" t="n">
-        <v>1466.051332697038</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="T6" t="n">
-        <v>1265.010014965988</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="U6" t="n">
-        <v>1265.010014965988</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="V6" t="n">
-        <v>1029.857906734246</v>
+        <v>1498.215531851238</v>
       </c>
       <c r="W6" t="n">
-        <v>1029.857906734246</v>
+        <v>1243.978175123036</v>
       </c>
       <c r="X6" t="n">
-        <v>1029.857906734246</v>
+        <v>1036.126674917503</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0976079692919</v>
+        <v>828.3663761525493</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.76445128094741</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="C7" t="n">
-        <v>46.76445128094741</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="D7" t="n">
-        <v>46.76445128094741</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="E7" t="n">
-        <v>46.76445128094741</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="F7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="G7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="H7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="I7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="J7" t="n">
-        <v>30.99158721153236</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="K7" t="n">
-        <v>36.06994770177032</v>
+        <v>36.06994770177062</v>
       </c>
       <c r="L7" t="n">
-        <v>98.09493531391483</v>
+        <v>98.0949353139154</v>
       </c>
       <c r="M7" t="n">
-        <v>173.8807113004511</v>
+        <v>173.880711300452</v>
       </c>
       <c r="N7" t="n">
-        <v>253.2990873454188</v>
+        <v>253.2990873454199</v>
       </c>
       <c r="O7" t="n">
-        <v>310.6385163451035</v>
+        <v>310.638516345105</v>
       </c>
       <c r="P7" t="n">
-        <v>336.181621317908</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="Q7" t="n">
-        <v>336.181621317908</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="R7" t="n">
-        <v>336.181621317908</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="S7" t="n">
-        <v>336.181621317908</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="T7" t="n">
-        <v>336.181621317908</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="U7" t="n">
-        <v>336.181621317908</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="V7" t="n">
-        <v>336.181621317908</v>
+        <v>336.1816213179097</v>
       </c>
       <c r="W7" t="n">
-        <v>46.76445128094741</v>
+        <v>258.9811381095498</v>
       </c>
       <c r="X7" t="n">
-        <v>46.76445128094741</v>
+        <v>30.99158721153245</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.76445128094741</v>
+        <v>30.99158721153245</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.7730915590425</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762915</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2279.707209887712</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1948.644322544141</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.372931623164</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4895,19 +4895,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.5052582912015</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5052582912015</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>104.5052582912015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>325.2978374347316</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.5052582912015</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>199.3218740085237</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>324.6794340663611</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>571.4445619728251</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M12" t="n">
-        <v>1339.812708365287</v>
+        <v>828.4426798345003</v>
       </c>
       <c r="N12" t="n">
-        <v>1684.333364002905</v>
+        <v>1632.854258098651</v>
       </c>
       <c r="O12" t="n">
-        <v>2353.797125305564</v>
+        <v>2302.31801940131</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>804.0893717830343</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1181.939794779312</v>
       </c>
       <c r="W13" t="n">
-        <v>1213.727387511291</v>
+        <v>892.5226247423514</v>
       </c>
       <c r="X13" t="n">
-        <v>985.737836613274</v>
+        <v>892.5226247423514</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.737836613274</v>
+        <v>671.7300455988212</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M15" t="n">
-        <v>1476.356849144414</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N15" t="n">
-        <v>1476.356849144414</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>525.6009593486384</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1008.274998452543</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1008.274998452543</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>753.5905102466558</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>753.5905102466558</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>525.6009593486384</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.6009593486384</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,46 +5500,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L18" t="n">
-        <v>549.5984374701561</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M18" t="n">
-        <v>897.6601296826478</v>
+        <v>647.5155168583367</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.071707946799</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188992</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819385</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X19" t="n">
-        <v>420.0340835819385</v>
+        <v>615.0162575140621</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.0340835819385</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,13 +5773,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>994.1443515904452</v>
       </c>
       <c r="M21" t="n">
-        <v>1645.803509761998</v>
+        <v>1314.479671120147</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.071707946799</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O21" t="n">
-        <v>2371.535469249458</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.395958403484</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1315.395958403484</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1315.395958403484</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1025.978788366523</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>797.9892374685055</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>577.1966583249754</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M24" t="n">
-        <v>1794.873193964058</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N24" t="n">
-        <v>1854.519469556429</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2148.946068912295</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3834.135840354894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3834.135840354894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365625</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365625</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4525.994054365625</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>4236.576884328664</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>4236.576884328664</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>4015.784305185134</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1672.759814717971</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>2002.622442382004</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2251.375856465967</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.2811958984814</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>785.7936752259998</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>642.5710836830572</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1410.939230075519</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.8045051785811</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506741</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>930.2455491523509</v>
+        <v>938.6030135708428</v>
       </c>
       <c r="X31" t="n">
-        <v>930.2455491523509</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.4529700088208</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,49 +6697,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2626.176921308641</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>2856.14002717699</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>3594.832119947335</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>3939.352775584953</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>4608.816536887613</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>4791.460014500964</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.753134944335</v>
+        <v>789.0750425434827</v>
       </c>
       <c r="C34" t="n">
-        <v>523.8169520164281</v>
+        <v>789.0750425434827</v>
       </c>
       <c r="D34" t="n">
-        <v>523.8169520164281</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>523.8169520164281</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185178</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W34" t="n">
-        <v>1095.194178918105</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.194178918105</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.4015997745747</v>
+        <v>789.0750425434827</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1567.123890985307</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4119.348874704331</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>3950.412691776424</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>3800.296052364089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3652.382958781695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576118</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V37" t="n">
-        <v>4749.779469576118</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W37" t="n">
-        <v>4749.779469576118</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X37" t="n">
-        <v>4521.789918678101</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y37" t="n">
-        <v>4300.997339534571</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>400.0241992548129</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1013.921269011701</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1782.289415404163</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2112.152043068196</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2360.905457152158</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3925.360448591585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3925.360448591585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3775.243809179249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4697.163126481931</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4408.034487695489</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4153.349999489602</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>4153.349999489602</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>3925.360448591585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3925.360448591585</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7408,37 +7408,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>493.0519035688098</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1261.420049961271</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1261.420049961271</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1930.883811263931</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3759.690041781069</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>3759.690041781069</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>3609.573402368733</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>3609.573402368733</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4820.909889708376</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4531.781250921934</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>4277.096762716047</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>3987.679592679086</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>3759.690041781069</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>3759.690041781069</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7663,19 +7663,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>327.180197328635</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1095.548343721096</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1440.068999358714</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2109.532760661374</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>898.7925182488384</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>667.8334571142351</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>405.3760678736849</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>394.5837460349999</v>
+        <v>364.3315866286074</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3741307499157</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>100.2612329527924</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>105.0127970052831</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>391.4579577221249</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.0744641817183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>435.3194441326309</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,19 +9491,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>191.5904753079503</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,19 +10202,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>30.97415022280433</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>159.8784933614128</v>
       </c>
       <c r="W13" t="n">
-        <v>4.186004120446171</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>76.14961870242146</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>43.69786406147904</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.156986349037282</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583854</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>87.23009411965771</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.86245202551456</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>89.29944753068557</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.21462564769413</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>31.42414653249102</v>
+        <v>18.05022631797937</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>70.93850894626168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>138.9757709370195</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>103.0395871740969</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>59.49302899135034</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271363</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>182.0023245855311</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.87352781333374</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="15">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196779</v>
-      </c>
       <c r="I2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196779</v>
@@ -26355,7 +26355,7 @@
         <v>566992.136619678</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>138241.1818300984</v>
+        <v>138241.1818300996</v>
       </c>
       <c r="D3" t="n">
-        <v>300621.8974133508</v>
+        <v>300621.8974133496</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124982</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>31952.95942414821</v>
+        <v>31952.95942414848</v>
       </c>
       <c r="L3" t="n">
-        <v>72609.89266179905</v>
+        <v>72609.89266179875</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>270946.525915338</v>
       </c>
       <c r="C4" t="n">
-        <v>230940.7002082374</v>
+        <v>230940.700208237</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759213</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905759004</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759168</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905758174</v>
+      </c>
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>60032.17562267168</v>
+        <v>60032.17562267177</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26481,13 +26481,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163779.8949544846</v>
+        <v>163779.8949544845</v>
       </c>
       <c r="C6" t="n">
-        <v>166041.2254905978</v>
+        <v>166041.2254905968</v>
       </c>
       <c r="D6" t="n">
-        <v>72715.16849422551</v>
+        <v>72715.16849422682</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651065</v>
+        <v>-51917.61075623218</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206642</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803852</v>
+        <v>473242.425720664</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803854</v>
+        <v>473242.4257206639</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803856</v>
+        <v>473242.4257206636</v>
       </c>
       <c r="J6" t="n">
-        <v>405341.3182491356</v>
+        <v>404366.726989414</v>
       </c>
       <c r="K6" t="n">
-        <v>442264.0575562371</v>
+        <v>441289.4662965157</v>
       </c>
       <c r="L6" t="n">
-        <v>401607.1243185863</v>
+        <v>400632.5330588652</v>
       </c>
       <c r="M6" t="n">
-        <v>339416.0017465483</v>
+        <v>338441.4104868266</v>
       </c>
       <c r="N6" t="n">
-        <v>474217.0169803854</v>
+        <v>473242.4257206637</v>
       </c>
       <c r="O6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206639</v>
       </c>
       <c r="P6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206637</v>
       </c>
     </row>
   </sheetData>
@@ -26700,16 +26700,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>130.7784101792243</v>
+        <v>130.7784101792253</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>387.3948401441544</v>
+        <v>387.3948401441556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>107.765027492435</v>
+        <v>107.7650274924359</v>
       </c>
       <c r="D3" t="n">
-        <v>246.9652540378624</v>
+        <v>246.9652540378614</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370136</v>
@@ -27014,10 +27014,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1528061924878</v>
+        <v>124.152806192489</v>
       </c>
       <c r="D4" t="n">
-        <v>286.8924326104012</v>
+        <v>286.8924326104</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516665</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924878</v>
+        <v>124.152806192489</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104012</v>
+        <v>286.8924326104</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>124.1528061924878</v>
+        <v>124.152806192489</v>
       </c>
       <c r="L4" t="n">
-        <v>286.8924326104012</v>
+        <v>286.8924326104</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>206.7662328021821</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>65.73917040160637</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.558537684445042</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>75.48171331306415</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>19.99691107496236</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,22 +27548,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>147.4441827632701</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>13.49772638242342</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>334.0905432484386</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>190.2072075264478</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.8439548922223</v>
+        <v>116.843954892222</v>
       </c>
       <c r="S5" t="n">
-        <v>197.0397157291234</v>
+        <v>197.0397157291233</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>220.7944124161532</v>
       </c>
       <c r="U5" t="n">
         <v>251.3035935196382</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>297.1306759244282</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0622202054666</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5187078288111</v>
+        <v>109.518707828811</v>
       </c>
       <c r="I6" t="n">
-        <v>50.27142966520865</v>
+        <v>79.71162794663283</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.8425571626524</v>
       </c>
       <c r="S6" t="n">
         <v>166.4582034896018</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0309045537394</v>
       </c>
       <c r="U6" t="n">
         <v>225.9228757021759</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>129.8059125942103</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.7551494384634</v>
@@ -27797,7 +27797,7 @@
         <v>148.3584260604898</v>
       </c>
       <c r="J7" t="n">
-        <v>76.68600477300348</v>
+        <v>76.68600477300335</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.41450331463152</v>
+        <v>66.41450331463136</v>
       </c>
       <c r="R7" t="n">
         <v>166.6896206108343</v>
       </c>
       <c r="S7" t="n">
-        <v>219.9067257039629</v>
+        <v>219.9067257039628</v>
       </c>
       <c r="T7" t="n">
         <v>226.9379524973924</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>210.0945199603148</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>59.90261513708401</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>108.8834281215532</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>96.37730894044049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -28775,7 +28775,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>3.796617681797508e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.819576831720501e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L2" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125436</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -31147,22 +31147,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J4" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471354</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5257423524792932</v>
+        <v>0.5257423524792972</v>
       </c>
       <c r="H5" t="n">
-        <v>5.384258867328564</v>
+        <v>5.384258867328604</v>
       </c>
       <c r="I5" t="n">
-        <v>20.26868204395797</v>
+        <v>20.26868204395813</v>
       </c>
       <c r="J5" t="n">
-        <v>44.62172498873946</v>
+        <v>44.62172498873979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.87639876918796</v>
+        <v>66.87639876918846</v>
       </c>
       <c r="L5" t="n">
-        <v>82.96608628887614</v>
+        <v>82.96608628887677</v>
       </c>
       <c r="M5" t="n">
-        <v>92.31575684977977</v>
+        <v>92.31575684978047</v>
       </c>
       <c r="N5" t="n">
-        <v>93.80952230876157</v>
+        <v>93.80952230876228</v>
       </c>
       <c r="O5" t="n">
-        <v>88.58167179129559</v>
+        <v>88.58167179129626</v>
       </c>
       <c r="P5" t="n">
-        <v>75.60240746446303</v>
+        <v>75.6024074644636</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.77425946629832</v>
+        <v>56.77425946629875</v>
       </c>
       <c r="R5" t="n">
-        <v>33.02516304892743</v>
+        <v>33.02516304892769</v>
       </c>
       <c r="S5" t="n">
-        <v>11.98035385712191</v>
+        <v>11.980353857122</v>
       </c>
       <c r="T5" t="n">
-        <v>2.301437147978108</v>
+        <v>2.301437147978125</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04205938819834345</v>
+        <v>0.04205938819834377</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2812969577439919</v>
+        <v>0.281296957743994</v>
       </c>
       <c r="H6" t="n">
-        <v>2.716736407685396</v>
+        <v>2.716736407685417</v>
       </c>
       <c r="I6" t="n">
-        <v>9.685004904782177</v>
+        <v>9.685004904782252</v>
       </c>
       <c r="J6" t="n">
-        <v>26.57639371387425</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>45.42328988272171</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>61.07721882945754</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -31381,25 +31381,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>66.92770204709792</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>53.71538134323649</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>35.90730990430325</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>17.46508655185943</v>
+        <v>17.46508655185957</v>
       </c>
       <c r="S6" t="n">
-        <v>5.224967614235986</v>
+        <v>5.224967614236026</v>
       </c>
       <c r="T6" t="n">
-        <v>1.133824141082142</v>
+        <v>1.133824141082151</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01850637879894684</v>
+        <v>0.01850637879894698</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2358299199953225</v>
+        <v>0.2358299199953243</v>
       </c>
       <c r="H7" t="n">
-        <v>2.096742379594778</v>
+        <v>2.096742379594794</v>
       </c>
       <c r="I7" t="n">
-        <v>7.092048866768427</v>
+        <v>7.092048866768481</v>
       </c>
       <c r="J7" t="n">
-        <v>16.6731753436693</v>
+        <v>16.67317534366942</v>
       </c>
       <c r="K7" t="n">
-        <v>27.39914888672928</v>
+        <v>27.39914888672948</v>
       </c>
       <c r="L7" t="n">
-        <v>35.06147737821367</v>
+        <v>35.06147737821394</v>
       </c>
       <c r="M7" t="n">
-        <v>36.96741191344859</v>
+        <v>36.96741191344887</v>
       </c>
       <c r="N7" t="n">
-        <v>36.08840948437515</v>
+        <v>36.08840948437542</v>
       </c>
       <c r="O7" t="n">
-        <v>33.33348723715704</v>
+        <v>33.3334872371573</v>
       </c>
       <c r="P7" t="n">
-        <v>28.52255686925244</v>
+        <v>28.52255686925266</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.74753993706287</v>
+        <v>19.74753993706302</v>
       </c>
       <c r="R7" t="n">
-        <v>10.60377076633513</v>
+        <v>10.60377076633521</v>
       </c>
       <c r="S7" t="n">
-        <v>4.109872333009391</v>
+        <v>4.109872333009422</v>
       </c>
       <c r="T7" t="n">
-        <v>1.007636930889105</v>
+        <v>1.007636930889112</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01286345018156306</v>
+        <v>0.01286345018156316</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,28 +31840,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>103.8827353143769</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>69.91661600823016</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,16 +32077,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>58.42321813458358</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32095,19 +32095,19 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>28.00643705332317</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>148.1449823495588</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,19 +32551,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>258.6604903205027</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>188.1782759063641</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32572,10 +32572,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>284.1959058113051</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,25 +33025,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>121.3733462459511</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,22 +33262,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33286,13 +33286,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,22 +33499,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>422.5825992329729</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>126.0445872665842</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,19 +33973,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.3317884558909</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,28 +34219,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>217.1078779627704</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34450,34 +34450,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>264.6492005940247</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L2" t="n">
         <v>196.494535815018</v>
@@ -34713,7 +34713,7 @@
         <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894758</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P2" t="n">
         <v>103.8696448668208</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>232.9898745452741</v>
       </c>
       <c r="O3" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.71104996310468</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082925</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O4" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.67243563412694</v>
+        <v>32.67243563412728</v>
       </c>
       <c r="K5" t="n">
-        <v>170.9319602953722</v>
+        <v>170.9319602953726</v>
       </c>
       <c r="L5" t="n">
-        <v>264.8608858693393</v>
+        <v>264.86088586934</v>
       </c>
       <c r="M5" t="n">
-        <v>311.4830571153395</v>
+        <v>311.4830571153402</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7433831241548</v>
+        <v>301.7433831241555</v>
       </c>
       <c r="O5" t="n">
-        <v>239.2836416323542</v>
+        <v>239.2836416323549</v>
       </c>
       <c r="P5" t="n">
-        <v>166.1681198806761</v>
+        <v>166.1681198806767</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.78356025175351</v>
+        <v>46.78356025175395</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>12.59464791364586</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>293.3631843530425</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>323.5710298279816</v>
@@ -35029,13 +35029,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O6" t="n">
-        <v>318.193776879383</v>
+        <v>248.8617132776805</v>
       </c>
       <c r="P6" t="n">
-        <v>238.2037425688434</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.129657060846426</v>
+        <v>5.129657060846633</v>
       </c>
       <c r="L7" t="n">
-        <v>62.65150263852981</v>
+        <v>62.65150263853008</v>
       </c>
       <c r="M7" t="n">
-        <v>76.55128887528917</v>
+        <v>76.55128887528946</v>
       </c>
       <c r="N7" t="n">
-        <v>80.22058186360374</v>
+        <v>80.22058186360401</v>
       </c>
       <c r="O7" t="n">
-        <v>57.91861515119672</v>
+        <v>57.91861515119697</v>
       </c>
       <c r="P7" t="n">
-        <v>25.80111613414593</v>
+        <v>25.80111613414615</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>103.136143988119</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>254.4049772338371</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>745.7438211830972</v>
+        <v>381.9942479625652</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>351.5774668813048</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>496.145644609779</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>490.9464558440877</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>56.83656382303075</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>60.24876322461696</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>468.684267036912</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>305.861707471558</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>364.1687236208173</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>746.1536290609545</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>449.6156170945658</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>263.9555864941105</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>401.5962391883773</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>449.1375618196316</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
